--- a/analysis_sample/0.xlsx
+++ b/analysis_sample/0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A28F43-7AAD-EE4C-80DB-ACD4D3516A60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA169FB-1CA1-DA45-A51E-3F62D7850BFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10298" uniqueCount="2469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10300" uniqueCount="2471">
   <si>
     <t>county_han</t>
   </si>
@@ -7443,6 +7443,17 @@
     <rPh sb="0" eb="1">
       <t>jun</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不改</t>
+    <rPh sb="0" eb="2">
+      <t>bu'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7802,8 +7813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8880,6 +8891,9 @@
       <c r="D34">
         <v>10221</v>
       </c>
+      <c r="E34" t="s">
+        <v>2470</v>
+      </c>
       <c r="F34">
         <v>109.27413</v>
       </c>
@@ -8972,6 +8986,9 @@
       </c>
       <c r="D37">
         <v>10224</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2469</v>
       </c>
       <c r="F37">
         <v>108.47769</v>

--- a/analysis_sample/0.xlsx
+++ b/analysis_sample/0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA169FB-1CA1-DA45-A51E-3F62D7850BFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5C315-1475-5B42-B440-63C38EAAB7FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -7813,8 +7813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A727" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H746" sqref="H746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/analysis_sample/0.xlsx
+++ b/analysis_sample/0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5C315-1475-5B42-B440-63C38EAAB7FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9BCE1-8E3C-E14E-85E4-B40C744D89A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00" sheetId="1" r:id="rId1"/>
@@ -6019,9 +6019,6 @@
     <t>章昭县</t>
   </si>
   <si>
-    <t>疆阴县</t>
-  </si>
-  <si>
     <t>伏阴县</t>
   </si>
   <si>
@@ -7456,12 +7453,16 @@
     <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>疆阴县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7470,6 +7471,12 @@
     <font>
       <sz val="9"/>
       <name val="Adobe Fangsong Std R"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -7494,9 +7501,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7813,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A727" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H746" sqref="H746"/>
+    <sheetView tabSelected="1" topLeftCell="A1421" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A1440" sqref="A1440:J1440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8892,7 +8900,7 @@
         <v>10221</v>
       </c>
       <c r="E34" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="F34">
         <v>109.27413</v>
@@ -8988,7 +8996,7 @@
         <v>10224</v>
       </c>
       <c r="E37" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F37">
         <v>108.47769</v>
@@ -45244,12 +45252,12 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="1171" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1171" t="s">
+    <row r="1171" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1171" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1171" t="s">
         <v>1998</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>1999</v>
       </c>
       <c r="C1171" t="s">
         <v>21</v>
@@ -45278,7 +45286,7 @@
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1172" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B1172" t="s">
         <v>831</v>
@@ -45299,21 +45307,21 @@
         <v>40.195989900000001</v>
       </c>
       <c r="H1172" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1172" t="s">
         <v>2001</v>
       </c>
-      <c r="I1172" t="s">
+      <c r="J1172" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1172" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1173" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1173" t="s">
         <v>2004</v>
-      </c>
-      <c r="B1173" t="s">
-        <v>2005</v>
       </c>
       <c r="C1173" t="s">
         <v>12</v>
@@ -45331,21 +45339,21 @@
         <v>40.119073</v>
       </c>
       <c r="H1173" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1173" t="s">
         <v>2001</v>
       </c>
-      <c r="I1173" t="s">
+      <c r="J1173" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1173" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1174" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1174" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C1174" t="s">
         <v>12</v>
@@ -45363,21 +45371,21 @@
         <v>39.961489999999998</v>
       </c>
       <c r="H1174" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1174" t="s">
         <v>2001</v>
       </c>
-      <c r="I1174" t="s">
+      <c r="J1174" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1174" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1175" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1175" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C1175" t="s">
         <v>12</v>
@@ -45395,21 +45403,21 @@
         <v>40.353703000000003</v>
       </c>
       <c r="H1175" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1175" t="s">
         <v>2001</v>
       </c>
-      <c r="I1175" t="s">
+      <c r="J1175" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1175" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1176" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1176" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C1176" t="s">
         <v>12</v>
@@ -45427,21 +45435,21 @@
         <v>40.670430000000003</v>
       </c>
       <c r="H1176" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1176" t="s">
         <v>2001</v>
       </c>
-      <c r="I1176" t="s">
+      <c r="J1176" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1176" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1177" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1177" t="s">
         <v>2009</v>
-      </c>
-      <c r="B1177" t="s">
-        <v>2010</v>
       </c>
       <c r="C1177" t="s">
         <v>12</v>
@@ -45459,21 +45467,21 @@
         <v>39.844844999999999</v>
       </c>
       <c r="H1177" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1177" t="s">
         <v>2001</v>
       </c>
-      <c r="I1177" t="s">
+      <c r="J1177" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1177" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1178" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B1178" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C1178" t="s">
         <v>12</v>
@@ -45491,21 +45499,21 @@
         <v>40.674346</v>
       </c>
       <c r="H1178" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1178" t="s">
         <v>2001</v>
       </c>
-      <c r="I1178" t="s">
+      <c r="J1178" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1178" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1179" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1179" t="s">
         <v>2012</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>2013</v>
       </c>
       <c r="C1179" t="s">
         <v>12</v>
@@ -45523,21 +45531,21 @@
         <v>39.955109</v>
       </c>
       <c r="H1179" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1179" t="s">
         <v>2001</v>
       </c>
-      <c r="I1179" t="s">
+      <c r="J1179" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1179" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1180" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1180" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C1180" t="s">
         <v>21</v>
@@ -45555,21 +45563,21 @@
         <v>40.980434500000001</v>
       </c>
       <c r="H1180" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1180" t="s">
         <v>2001</v>
       </c>
-      <c r="I1180" t="s">
+      <c r="J1180" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1180" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1181" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1181" t="s">
         <v>2015</v>
-      </c>
-      <c r="B1181" t="s">
-        <v>2016</v>
       </c>
       <c r="C1181" t="s">
         <v>21</v>
@@ -45587,21 +45595,21 @@
         <v>40.02131</v>
       </c>
       <c r="H1181" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1181" t="s">
         <v>2001</v>
       </c>
-      <c r="I1181" t="s">
+      <c r="J1181" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1181" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1182" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1182" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C1182" t="s">
         <v>12</v>
@@ -45619,21 +45627,21 @@
         <v>40.090589999999999</v>
       </c>
       <c r="H1182" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1182" t="s">
         <v>2001</v>
       </c>
-      <c r="I1182" t="s">
+      <c r="J1182" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1182" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1183" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1183" t="s">
         <v>2018</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>2019</v>
       </c>
       <c r="C1183" t="s">
         <v>12</v>
@@ -45651,21 +45659,21 @@
         <v>40.027160000000002</v>
       </c>
       <c r="H1183" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1183" t="s">
         <v>2001</v>
       </c>
-      <c r="I1183" t="s">
+      <c r="J1183" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1183" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1184" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1184" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1184" t="s">
         <v>12</v>
@@ -45683,21 +45691,21 @@
         <v>40.401161999999999</v>
       </c>
       <c r="H1184" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1184" t="s">
         <v>2001</v>
       </c>
-      <c r="I1184" t="s">
+      <c r="J1184" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1184" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1185" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1185" t="s">
         <v>2021</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>2022</v>
       </c>
       <c r="C1185" t="s">
         <v>12</v>
@@ -45715,21 +45723,21 @@
         <v>39.733494</v>
       </c>
       <c r="H1185" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1185" t="s">
         <v>2001</v>
       </c>
-      <c r="I1185" t="s">
+      <c r="J1185" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1185" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1186" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1186" t="s">
         <v>2023</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>2024</v>
       </c>
       <c r="C1186" t="s">
         <v>12</v>
@@ -45747,21 +45755,21 @@
         <v>39.891559999999998</v>
       </c>
       <c r="H1186" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1186" t="s">
         <v>2001</v>
       </c>
-      <c r="I1186" t="s">
+      <c r="J1186" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1186" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1187" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B1187" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C1187" t="s">
         <v>12</v>
@@ -45779,21 +45787,21 @@
         <v>39.428994000000003</v>
       </c>
       <c r="H1187" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1187" t="s">
         <v>2001</v>
       </c>
-      <c r="I1187" t="s">
+      <c r="J1187" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1187" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1188" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1188" t="s">
         <v>2026</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>2027</v>
       </c>
       <c r="C1188" t="s">
         <v>12</v>
@@ -45811,21 +45819,21 @@
         <v>39.403570000000002</v>
       </c>
       <c r="H1188" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1188" t="s">
         <v>2001</v>
       </c>
-      <c r="I1188" t="s">
+      <c r="J1188" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1188" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1189" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1189" t="s">
         <v>2028</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>2029</v>
       </c>
       <c r="C1189" t="s">
         <v>12</v>
@@ -45843,21 +45851,21 @@
         <v>39.294863999999997</v>
       </c>
       <c r="H1189" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I1189" t="s">
         <v>2001</v>
       </c>
-      <c r="I1189" t="s">
+      <c r="J1189" t="s">
         <v>2002</v>
-      </c>
-      <c r="J1189" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1190" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1190" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C1190" t="s">
         <v>12</v>
@@ -45875,21 +45883,21 @@
         <v>36.221029999999999</v>
       </c>
       <c r="H1190" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1190" t="s">
         <v>2031</v>
       </c>
-      <c r="I1190" t="s">
+      <c r="J1190" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1190" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1191" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1191" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C1191" t="s">
         <v>12</v>
@@ -45907,21 +45915,21 @@
         <v>36.221029999999999</v>
       </c>
       <c r="H1191" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1191" t="s">
         <v>2031</v>
       </c>
-      <c r="I1191" t="s">
+      <c r="J1191" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1191" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1192" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B1192" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C1192" t="s">
         <v>21</v>
@@ -45939,21 +45947,21 @@
         <v>35.9622952</v>
       </c>
       <c r="H1192" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1192" t="s">
         <v>2031</v>
       </c>
-      <c r="I1192" t="s">
+      <c r="J1192" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1192" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1193" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B1193" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C1193" t="s">
         <v>21</v>
@@ -45971,21 +45979,21 @@
         <v>35.9622952</v>
       </c>
       <c r="H1193" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1193" t="s">
         <v>2031</v>
       </c>
-      <c r="I1193" t="s">
+      <c r="J1193" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1193" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1194" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1194" t="s">
         <v>2035</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>2036</v>
       </c>
       <c r="C1194" t="s">
         <v>21</v>
@@ -46003,13 +46011,13 @@
         <v>38.744313099999999</v>
       </c>
       <c r="H1194" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1194" t="s">
         <v>2031</v>
       </c>
-      <c r="I1194" t="s">
+      <c r="J1194" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1194" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.15">
@@ -46017,7 +46025,7 @@
         <v>441</v>
       </c>
       <c r="B1195" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C1195" t="s">
         <v>12</v>
@@ -46035,13 +46043,13 @@
         <v>38.021210000000004</v>
       </c>
       <c r="H1195" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1195" t="s">
         <v>2031</v>
       </c>
-      <c r="I1195" t="s">
+      <c r="J1195" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1195" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.15">
@@ -46049,7 +46057,7 @@
         <v>441</v>
       </c>
       <c r="B1196" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C1196" t="s">
         <v>12</v>
@@ -46067,21 +46075,21 @@
         <v>38.021210000000004</v>
       </c>
       <c r="H1196" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1196" t="s">
         <v>2031</v>
       </c>
-      <c r="I1196" t="s">
+      <c r="J1196" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1196" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1197" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1197" t="s">
         <v>2038</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>2039</v>
       </c>
       <c r="C1197" t="s">
         <v>21</v>
@@ -46099,21 +46107,21 @@
         <v>38.307614200000003</v>
       </c>
       <c r="H1197" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1197" t="s">
         <v>2031</v>
       </c>
-      <c r="I1197" t="s">
+      <c r="J1197" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1197" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1198" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1198" t="s">
         <v>2038</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>2039</v>
       </c>
       <c r="C1198" t="s">
         <v>21</v>
@@ -46131,21 +46139,21 @@
         <v>38.307614200000003</v>
       </c>
       <c r="H1198" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1198" t="s">
         <v>2031</v>
       </c>
-      <c r="I1198" t="s">
+      <c r="J1198" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1198" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1199" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1199" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C1199" t="s">
         <v>21</v>
@@ -46163,21 +46171,21 @@
         <v>37.728514199999999</v>
       </c>
       <c r="H1199" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1199" t="s">
         <v>2031</v>
       </c>
-      <c r="I1199" t="s">
+      <c r="J1199" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1199" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1200" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1200" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C1200" t="s">
         <v>21</v>
@@ -46195,21 +46203,21 @@
         <v>37.728514199999999</v>
       </c>
       <c r="H1200" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1200" t="s">
         <v>2031</v>
       </c>
-      <c r="I1200" t="s">
+      <c r="J1200" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1200" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1201" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1201" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C1201" t="s">
         <v>12</v>
@@ -46227,21 +46235,21 @@
         <v>37.600720000000003</v>
       </c>
       <c r="H1201" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1201" t="s">
         <v>2031</v>
       </c>
-      <c r="I1201" t="s">
+      <c r="J1201" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1201" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1202" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1202" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C1202" t="s">
         <v>12</v>
@@ -46259,21 +46267,21 @@
         <v>37.600720000000003</v>
       </c>
       <c r="H1202" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1202" t="s">
         <v>2031</v>
       </c>
-      <c r="I1202" t="s">
+      <c r="J1202" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1202" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1203" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1203" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C1203" t="s">
         <v>21</v>
@@ -46291,21 +46299,21 @@
         <v>35.142845199999996</v>
       </c>
       <c r="H1203" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1203" t="s">
         <v>2031</v>
       </c>
-      <c r="I1203" t="s">
+      <c r="J1203" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1203" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1204" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1204" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C1204" t="s">
         <v>21</v>
@@ -46323,21 +46331,21 @@
         <v>35.142845199999996</v>
       </c>
       <c r="H1204" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1204" t="s">
         <v>2031</v>
       </c>
-      <c r="I1204" t="s">
+      <c r="J1204" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1204" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1205" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1205" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C1205" t="s">
         <v>21</v>
@@ -46355,21 +46363,21 @@
         <v>37.0615612</v>
       </c>
       <c r="H1205" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1205" t="s">
         <v>2031</v>
       </c>
-      <c r="I1205" t="s">
+      <c r="J1205" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1205" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1206" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1206" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C1206" t="s">
         <v>21</v>
@@ -46387,21 +46395,21 @@
         <v>37.0615612</v>
       </c>
       <c r="H1206" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1206" t="s">
         <v>2031</v>
       </c>
-      <c r="I1206" t="s">
+      <c r="J1206" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1206" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1207" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1207" t="s">
         <v>2044</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>2045</v>
       </c>
       <c r="C1207" t="s">
         <v>21</v>
@@ -46419,21 +46427,21 @@
         <v>35.860345199999998</v>
       </c>
       <c r="H1207" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1207" t="s">
         <v>2031</v>
       </c>
-      <c r="I1207" t="s">
+      <c r="J1207" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1207" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1208" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1208" t="s">
         <v>2044</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>2045</v>
       </c>
       <c r="C1208" t="s">
         <v>21</v>
@@ -46451,21 +46459,21 @@
         <v>35.860345199999998</v>
       </c>
       <c r="H1208" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1208" t="s">
         <v>2031</v>
       </c>
-      <c r="I1208" t="s">
+      <c r="J1208" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1208" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1209" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1209" t="s">
         <v>2046</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>2047</v>
       </c>
       <c r="C1209" t="s">
         <v>12</v>
@@ -46483,21 +46491,21 @@
         <v>35.32752</v>
       </c>
       <c r="H1209" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1209" t="s">
         <v>2031</v>
       </c>
-      <c r="I1209" t="s">
+      <c r="J1209" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1209" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1210" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1210" t="s">
         <v>2046</v>
-      </c>
-      <c r="B1210" t="s">
-        <v>2047</v>
       </c>
       <c r="C1210" t="s">
         <v>12</v>
@@ -46515,21 +46523,21 @@
         <v>35.32752</v>
       </c>
       <c r="H1210" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1210" t="s">
         <v>2031</v>
       </c>
-      <c r="I1210" t="s">
+      <c r="J1210" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1210" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1211" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1211" t="s">
         <v>2048</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>2049</v>
       </c>
       <c r="C1211" t="s">
         <v>21</v>
@@ -46547,21 +46555,21 @@
         <v>35.730928599999999</v>
       </c>
       <c r="H1211" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1211" t="s">
         <v>2031</v>
       </c>
-      <c r="I1211" t="s">
+      <c r="J1211" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1211" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1212" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1212" t="s">
         <v>2048</v>
-      </c>
-      <c r="B1212" t="s">
-        <v>2049</v>
       </c>
       <c r="C1212" t="s">
         <v>21</v>
@@ -46579,21 +46587,21 @@
         <v>35.730928599999999</v>
       </c>
       <c r="H1212" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1212" t="s">
         <v>2031</v>
       </c>
-      <c r="I1212" t="s">
+      <c r="J1212" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1212" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1213" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1213" t="s">
         <v>2050</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>2051</v>
       </c>
       <c r="C1213" t="s">
         <v>21</v>
@@ -46611,21 +46619,21 @@
         <v>35.644831000000003</v>
       </c>
       <c r="H1213" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1213" t="s">
         <v>2031</v>
       </c>
-      <c r="I1213" t="s">
+      <c r="J1213" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1213" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1214" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1214" t="s">
         <v>2050</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>2051</v>
       </c>
       <c r="C1214" t="s">
         <v>21</v>
@@ -46643,21 +46651,21 @@
         <v>35.644831000000003</v>
       </c>
       <c r="H1214" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1214" t="s">
         <v>2031</v>
       </c>
-      <c r="I1214" t="s">
+      <c r="J1214" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1214" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1215" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B1215" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C1215" t="s">
         <v>12</v>
@@ -46675,21 +46683,21 @@
         <v>35.411320000000003</v>
       </c>
       <c r="H1215" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1215" t="s">
         <v>2031</v>
       </c>
-      <c r="I1215" t="s">
+      <c r="J1215" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1215" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1216" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B1216" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C1216" t="s">
         <v>12</v>
@@ -46707,21 +46715,21 @@
         <v>35.411320000000003</v>
       </c>
       <c r="H1216" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1216" t="s">
         <v>2031</v>
       </c>
-      <c r="I1216" t="s">
+      <c r="J1216" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1216" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1217" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B1217" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C1217" t="s">
         <v>21</v>
@@ -46739,21 +46747,21 @@
         <v>35.444662200000003</v>
       </c>
       <c r="H1217" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1217" t="s">
         <v>2031</v>
       </c>
-      <c r="I1217" t="s">
+      <c r="J1217" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1217" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1218" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B1218" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C1218" t="s">
         <v>21</v>
@@ -46771,21 +46779,21 @@
         <v>35.444662200000003</v>
       </c>
       <c r="H1218" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1218" t="s">
         <v>2031</v>
       </c>
-      <c r="I1218" t="s">
+      <c r="J1218" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1218" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1219" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1219" t="s">
         <v>2054</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>2055</v>
       </c>
       <c r="C1219" t="s">
         <v>12</v>
@@ -46803,13 +46811,13 @@
         <v>38.493119999999998</v>
       </c>
       <c r="H1219" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1219" t="s">
         <v>2031</v>
       </c>
-      <c r="I1219" t="s">
+      <c r="J1219" t="s">
         <v>2032</v>
-      </c>
-      <c r="J1219" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.15">
@@ -46817,7 +46825,7 @@
         <v>552</v>
       </c>
       <c r="B1220" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C1220" t="s">
         <v>21</v>
@@ -46835,21 +46843,21 @@
         <v>39.6695201</v>
       </c>
       <c r="H1220" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1220" t="s">
         <v>2057</v>
       </c>
-      <c r="I1220" t="s">
+      <c r="J1220" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1220" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1221" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1221" t="s">
         <v>2060</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>2061</v>
       </c>
       <c r="C1221" t="s">
         <v>21</v>
@@ -46867,21 +46875,21 @@
         <v>39.6920991</v>
       </c>
       <c r="H1221" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1221" t="s">
         <v>2057</v>
       </c>
-      <c r="I1221" t="s">
+      <c r="J1221" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1221" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1222" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1222" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C1222" t="s">
         <v>21</v>
@@ -46899,21 +46907,21 @@
         <v>40.030123099999997</v>
       </c>
       <c r="H1222" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1222" t="s">
         <v>2057</v>
       </c>
-      <c r="I1222" t="s">
+      <c r="J1222" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1222" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1223" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1223" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C1223" t="s">
         <v>21</v>
@@ -46931,21 +46939,21 @@
         <v>37.266881599999998</v>
       </c>
       <c r="H1223" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1223" t="s">
         <v>2057</v>
       </c>
-      <c r="I1223" t="s">
+      <c r="J1223" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1223" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1224" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1224" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C1224" t="s">
         <v>21</v>
@@ -46963,21 +46971,21 @@
         <v>37.6265632</v>
       </c>
       <c r="H1224" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1224" t="s">
         <v>2057</v>
       </c>
-      <c r="I1224" t="s">
+      <c r="J1224" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1224" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1225" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1225" t="s">
         <v>2065</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>2066</v>
       </c>
       <c r="C1225" t="s">
         <v>21</v>
@@ -46995,21 +47003,21 @@
         <v>39.566678199999998</v>
       </c>
       <c r="H1225" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1225" t="s">
         <v>2057</v>
       </c>
-      <c r="I1225" t="s">
+      <c r="J1225" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1225" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1226" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1226" t="s">
         <v>2067</v>
-      </c>
-      <c r="B1226" t="s">
-        <v>2068</v>
       </c>
       <c r="C1226" t="s">
         <v>12</v>
@@ -47027,21 +47035,21 @@
         <v>38.555</v>
       </c>
       <c r="H1226" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1226" t="s">
         <v>2057</v>
       </c>
-      <c r="I1226" t="s">
+      <c r="J1226" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1226" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1227" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1227" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C1227" t="s">
         <v>21</v>
@@ -47059,21 +47067,21 @@
         <v>37.135173199999997</v>
       </c>
       <c r="H1227" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1227" t="s">
         <v>2057</v>
       </c>
-      <c r="I1227" t="s">
+      <c r="J1227" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1227" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1228" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1228" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C1228" t="s">
         <v>21</v>
@@ -47091,21 +47099,21 @@
         <v>38.715743199999999</v>
       </c>
       <c r="H1228" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1228" t="s">
         <v>2057</v>
       </c>
-      <c r="I1228" t="s">
+      <c r="J1228" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1228" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1229" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1229" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C1229" t="s">
         <v>21</v>
@@ -47123,21 +47131,21 @@
         <v>37.559145200000003</v>
       </c>
       <c r="H1229" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1229" t="s">
         <v>2057</v>
       </c>
-      <c r="I1229" t="s">
+      <c r="J1229" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1229" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1230" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1230" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C1230" t="s">
         <v>21</v>
@@ -47155,21 +47163,21 @@
         <v>39.863152100000001</v>
       </c>
       <c r="H1230" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1230" t="s">
         <v>2057</v>
       </c>
-      <c r="I1230" t="s">
+      <c r="J1230" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1230" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1231" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1231" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C1231" t="s">
         <v>21</v>
@@ -47187,21 +47195,21 @@
         <v>38.604657099999997</v>
       </c>
       <c r="H1231" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1231" t="s">
         <v>2057</v>
       </c>
-      <c r="I1231" t="s">
+      <c r="J1231" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1231" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1232" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1232" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C1232" t="s">
         <v>21</v>
@@ -47219,21 +47227,21 @@
         <v>39.730604100000001</v>
       </c>
       <c r="H1232" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1232" t="s">
         <v>2057</v>
       </c>
-      <c r="I1232" t="s">
+      <c r="J1232" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1232" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1233" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1233" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C1233" t="s">
         <v>21</v>
@@ -47251,21 +47259,21 @@
         <v>39.369881100000001</v>
       </c>
       <c r="H1233" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1233" t="s">
         <v>2057</v>
       </c>
-      <c r="I1233" t="s">
+      <c r="J1233" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1233" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1234" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1234" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C1234" t="s">
         <v>21</v>
@@ -47283,21 +47291,21 @@
         <v>37.512384300000001</v>
       </c>
       <c r="H1234" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1234" t="s">
         <v>2057</v>
       </c>
-      <c r="I1234" t="s">
+      <c r="J1234" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1234" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1235" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1235" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C1235" t="s">
         <v>21</v>
@@ -47315,21 +47323,21 @@
         <v>39.595902199999998</v>
       </c>
       <c r="H1235" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1235" t="s">
         <v>2057</v>
       </c>
-      <c r="I1235" t="s">
+      <c r="J1235" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1235" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1236" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1236" t="s">
         <v>2078</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>2079</v>
       </c>
       <c r="C1236" t="s">
         <v>21</v>
@@ -47347,21 +47355,21 @@
         <v>37.413445199999998</v>
       </c>
       <c r="H1236" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1236" t="s">
         <v>2057</v>
       </c>
-      <c r="I1236" t="s">
+      <c r="J1236" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1236" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1237" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1237" t="s">
         <v>2080</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>2081</v>
       </c>
       <c r="C1237" t="s">
         <v>21</v>
@@ -47379,21 +47387,21 @@
         <v>38.174590199999997</v>
       </c>
       <c r="H1237" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1237" t="s">
         <v>2057</v>
       </c>
-      <c r="I1237" t="s">
+      <c r="J1237" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1237" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1238" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B1238" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C1238" t="s">
         <v>21</v>
@@ -47411,13 +47419,13 @@
         <v>37.000989199999999</v>
       </c>
       <c r="H1238" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1238" t="s">
         <v>2057</v>
       </c>
-      <c r="I1238" t="s">
+      <c r="J1238" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1238" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.15">
@@ -47425,7 +47433,7 @@
         <v>1530</v>
       </c>
       <c r="B1239" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C1239" t="s">
         <v>21</v>
@@ -47443,21 +47451,21 @@
         <v>36.082067199999997</v>
       </c>
       <c r="H1239" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I1239" t="s">
         <v>2057</v>
       </c>
-      <c r="I1239" t="s">
+      <c r="J1239" t="s">
         <v>2058</v>
-      </c>
-      <c r="J1239" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1240" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1240" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C1240" t="s">
         <v>21</v>
@@ -47475,21 +47483,21 @@
         <v>40.678319199999997</v>
       </c>
       <c r="H1240" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1240" t="s">
         <v>2085</v>
       </c>
-      <c r="I1240" t="s">
+      <c r="J1240" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1240" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1241" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1241" t="s">
         <v>2088</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>2089</v>
       </c>
       <c r="C1241" t="s">
         <v>21</v>
@@ -47507,21 +47515,21 @@
         <v>40.446038100000003</v>
       </c>
       <c r="H1241" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1241" t="s">
         <v>2085</v>
       </c>
-      <c r="I1241" t="s">
+      <c r="J1241" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1241" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1242" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1242" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C1242" t="s">
         <v>21</v>
@@ -47539,21 +47547,21 @@
         <v>40.0053111</v>
       </c>
       <c r="H1242" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1242" t="s">
         <v>2085</v>
       </c>
-      <c r="I1242" t="s">
+      <c r="J1242" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1242" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1243" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1243" t="s">
         <v>2091</v>
-      </c>
-      <c r="B1243" t="s">
-        <v>2092</v>
       </c>
       <c r="C1243" t="s">
         <v>21</v>
@@ -47571,21 +47579,21 @@
         <v>41.0355232</v>
       </c>
       <c r="H1243" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1243" t="s">
         <v>2085</v>
       </c>
-      <c r="I1243" t="s">
+      <c r="J1243" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1243" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1244" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1244" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C1244" t="s">
         <v>21</v>
@@ -47603,21 +47611,21 @@
         <v>40.677291099999998</v>
       </c>
       <c r="H1244" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1244" t="s">
         <v>2085</v>
       </c>
-      <c r="I1244" t="s">
+      <c r="J1244" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1244" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1245" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1245" t="s">
         <v>2094</v>
-      </c>
-      <c r="B1245" t="s">
-        <v>2095</v>
       </c>
       <c r="C1245" t="s">
         <v>21</v>
@@ -47635,21 +47643,21 @@
         <v>40.3459681</v>
       </c>
       <c r="H1245" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1245" t="s">
         <v>2085</v>
       </c>
-      <c r="I1245" t="s">
+      <c r="J1245" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1245" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1246" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1246" t="s">
         <v>2096</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>2097</v>
       </c>
       <c r="C1246" t="s">
         <v>21</v>
@@ -47667,21 +47675,21 @@
         <v>40.444028099999997</v>
       </c>
       <c r="H1246" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1246" t="s">
         <v>2085</v>
       </c>
-      <c r="I1246" t="s">
+      <c r="J1246" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1246" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1247" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1247" t="s">
         <v>2098</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>2099</v>
       </c>
       <c r="C1247" t="s">
         <v>21</v>
@@ -47699,21 +47707,21 @@
         <v>40.6568361</v>
       </c>
       <c r="H1247" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1247" t="s">
         <v>2085</v>
       </c>
-      <c r="I1247" t="s">
+      <c r="J1247" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1247" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1248" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1248" t="s">
         <v>2100</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>2101</v>
       </c>
       <c r="C1248" t="s">
         <v>21</v>
@@ -47731,21 +47739,21 @@
         <v>41.019685099999997</v>
       </c>
       <c r="H1248" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1248" t="s">
         <v>2085</v>
       </c>
-      <c r="I1248" t="s">
+      <c r="J1248" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1248" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1249" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1249" t="s">
         <v>2102</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>2103</v>
       </c>
       <c r="C1249" t="s">
         <v>21</v>
@@ -47763,21 +47771,21 @@
         <v>40.560217100000003</v>
       </c>
       <c r="H1249" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1249" t="s">
         <v>2085</v>
       </c>
-      <c r="I1249" t="s">
+      <c r="J1249" t="s">
         <v>2086</v>
-      </c>
-      <c r="J1249" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1250" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1250" t="s">
         <v>2104</v>
-      </c>
-      <c r="B1250" t="s">
-        <v>2105</v>
       </c>
       <c r="C1250" t="s">
         <v>21</v>
@@ -47795,21 +47803,21 @@
         <v>40.661253100000003</v>
       </c>
       <c r="H1250" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1250" t="s">
         <v>2106</v>
       </c>
-      <c r="I1250" t="s">
+      <c r="J1250" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1250" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1251" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1251" t="s">
         <v>2109</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>2110</v>
       </c>
       <c r="C1251" t="s">
         <v>21</v>
@@ -47827,21 +47835,21 @@
         <v>41.059227100000001</v>
       </c>
       <c r="H1251" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1251" t="s">
         <v>2106</v>
       </c>
-      <c r="I1251" t="s">
+      <c r="J1251" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1251" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1252" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1252" t="s">
         <v>2111</v>
-      </c>
-      <c r="B1252" t="s">
-        <v>2112</v>
       </c>
       <c r="C1252" t="s">
         <v>21</v>
@@ -47859,21 +47867,21 @@
         <v>40.648495199999999</v>
       </c>
       <c r="H1252" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1252" t="s">
         <v>2106</v>
       </c>
-      <c r="I1252" t="s">
+      <c r="J1252" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1252" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1253" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1253" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C1253" t="s">
         <v>21</v>
@@ -47891,21 +47899,21 @@
         <v>40.432710200000002</v>
       </c>
       <c r="H1253" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1253" t="s">
         <v>2106</v>
       </c>
-      <c r="I1253" t="s">
+      <c r="J1253" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1253" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1254" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1254" t="s">
         <v>2114</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>2115</v>
       </c>
       <c r="C1254" t="s">
         <v>21</v>
@@ -47923,13 +47931,13 @@
         <v>39.760967100000002</v>
       </c>
       <c r="H1254" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1254" t="s">
         <v>2106</v>
       </c>
-      <c r="I1254" t="s">
+      <c r="J1254" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1254" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.15">
@@ -47937,7 +47945,7 @@
         <v>1760</v>
       </c>
       <c r="B1255" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C1255" t="s">
         <v>21</v>
@@ -47955,21 +47963,21 @@
         <v>40.530661299999998</v>
       </c>
       <c r="H1255" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1255" t="s">
         <v>2106</v>
       </c>
-      <c r="I1255" t="s">
+      <c r="J1255" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1255" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1256" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1256" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C1256" t="s">
         <v>21</v>
@@ -47987,21 +47995,21 @@
         <v>40.640688099999998</v>
       </c>
       <c r="H1256" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1256" t="s">
         <v>2106</v>
       </c>
-      <c r="I1256" t="s">
+      <c r="J1256" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1256" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1257" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1257" t="s">
         <v>2118</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>2119</v>
       </c>
       <c r="C1257" t="s">
         <v>21</v>
@@ -48019,21 +48027,21 @@
         <v>39.920042000000002</v>
       </c>
       <c r="H1257" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1257" t="s">
         <v>2106</v>
       </c>
-      <c r="I1257" t="s">
+      <c r="J1257" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1257" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1258" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1258" t="s">
         <v>2120</v>
-      </c>
-      <c r="B1258" t="s">
-        <v>2121</v>
       </c>
       <c r="C1258" t="s">
         <v>21</v>
@@ -48051,21 +48059,21 @@
         <v>40.4893821</v>
       </c>
       <c r="H1258" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1258" t="s">
         <v>2106</v>
       </c>
-      <c r="I1258" t="s">
+      <c r="J1258" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1258" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1259" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1259" t="s">
         <v>2122</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>2123</v>
       </c>
       <c r="C1259" t="s">
         <v>21</v>
@@ -48083,21 +48091,21 @@
         <v>40.655442200000003</v>
       </c>
       <c r="H1259" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1259" t="s">
         <v>2106</v>
       </c>
-      <c r="I1259" t="s">
+      <c r="J1259" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1259" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1260" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1260" t="s">
         <v>2124</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>2125</v>
       </c>
       <c r="C1260" t="s">
         <v>21</v>
@@ -48115,21 +48123,21 @@
         <v>40.597388100000003</v>
       </c>
       <c r="H1260" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1260" t="s">
         <v>2106</v>
       </c>
-      <c r="I1260" t="s">
+      <c r="J1260" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1260" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1261" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B1261" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C1261" t="s">
         <v>21</v>
@@ -48147,21 +48155,21 @@
         <v>41.032540099999999</v>
       </c>
       <c r="H1261" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I1261" t="s">
         <v>2106</v>
       </c>
-      <c r="I1261" t="s">
+      <c r="J1261" t="s">
         <v>2107</v>
-      </c>
-      <c r="J1261" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1262" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1262" t="s">
         <v>2127</v>
-      </c>
-      <c r="B1262" t="s">
-        <v>2128</v>
       </c>
       <c r="C1262" t="s">
         <v>12</v>
@@ -48179,21 +48187,21 @@
         <v>38.209130000000002</v>
       </c>
       <c r="H1262" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1262" t="s">
         <v>2129</v>
       </c>
-      <c r="I1262" t="s">
+      <c r="J1262" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1262" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1263" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1263" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C1263" t="s">
         <v>12</v>
@@ -48211,21 +48219,21 @@
         <v>37.806759999999997</v>
       </c>
       <c r="H1263" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1263" t="s">
         <v>2129</v>
       </c>
-      <c r="I1263" t="s">
+      <c r="J1263" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1263" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1264" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1264" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C1264" t="s">
         <v>12</v>
@@ -48243,21 +48251,21 @@
         <v>37.852820000000001</v>
       </c>
       <c r="H1264" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1264" t="s">
         <v>2129</v>
       </c>
-      <c r="I1264" t="s">
+      <c r="J1264" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1264" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1265" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1265" t="s">
         <v>2134</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>2135</v>
       </c>
       <c r="C1265" t="s">
         <v>12</v>
@@ -48275,21 +48283,21 @@
         <v>37.882840000000002</v>
       </c>
       <c r="H1265" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1265" t="s">
         <v>2129</v>
       </c>
-      <c r="I1265" t="s">
+      <c r="J1265" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1265" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1266" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B1266" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C1266" t="s">
         <v>12</v>
@@ -48307,21 +48315,21 @@
         <v>37.85783</v>
       </c>
       <c r="H1266" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1266" t="s">
         <v>2129</v>
       </c>
-      <c r="I1266" t="s">
+      <c r="J1266" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1266" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1267" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B1267" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C1267" t="s">
         <v>21</v>
@@ -48339,21 +48347,21 @@
         <v>37.622439200000002</v>
       </c>
       <c r="H1267" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1267" t="s">
         <v>2129</v>
       </c>
-      <c r="I1267" t="s">
+      <c r="J1267" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1267" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1268" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1268" t="s">
         <v>2138</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>2139</v>
       </c>
       <c r="C1268" t="s">
         <v>12</v>
@@ -48371,21 +48379,21 @@
         <v>38.122500000000002</v>
       </c>
       <c r="H1268" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1268" t="s">
         <v>2129</v>
       </c>
-      <c r="I1268" t="s">
+      <c r="J1268" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1268" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1269" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1269" t="s">
         <v>2140</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>2141</v>
       </c>
       <c r="C1269" t="s">
         <v>21</v>
@@ -48403,13 +48411,13 @@
         <v>37.759498200000003</v>
       </c>
       <c r="H1269" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1269" t="s">
         <v>2129</v>
       </c>
-      <c r="I1269" t="s">
+      <c r="J1269" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1269" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.15">
@@ -48417,7 +48425,7 @@
         <v>1219</v>
       </c>
       <c r="B1270" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C1270" t="s">
         <v>12</v>
@@ -48435,21 +48443,21 @@
         <v>38.280380000000001</v>
       </c>
       <c r="H1270" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1270" t="s">
         <v>2129</v>
       </c>
-      <c r="I1270" t="s">
+      <c r="J1270" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1270" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1271" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1271" t="s">
         <v>2143</v>
-      </c>
-      <c r="B1271" t="s">
-        <v>2144</v>
       </c>
       <c r="C1271" t="s">
         <v>21</v>
@@ -48467,13 +48475,13 @@
         <v>38.345313099999998</v>
       </c>
       <c r="H1271" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1271" t="s">
         <v>2129</v>
       </c>
-      <c r="I1271" t="s">
+      <c r="J1271" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1271" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.15">
@@ -48499,21 +48507,21 @@
         <v>38.015213199999998</v>
       </c>
       <c r="H1272" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1272" t="s">
         <v>2129</v>
       </c>
-      <c r="I1272" t="s">
+      <c r="J1272" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1272" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1273" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1273" t="s">
         <v>2145</v>
-      </c>
-      <c r="B1273" t="s">
-        <v>2146</v>
       </c>
       <c r="C1273" t="s">
         <v>12</v>
@@ -48531,21 +48539,21 @@
         <v>37.893819999999998</v>
       </c>
       <c r="H1273" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1273" t="s">
         <v>2129</v>
       </c>
-      <c r="I1273" t="s">
+      <c r="J1273" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1273" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1274" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1274" t="s">
         <v>2147</v>
-      </c>
-      <c r="B1274" t="s">
-        <v>2148</v>
       </c>
       <c r="C1274" t="s">
         <v>12</v>
@@ -48563,21 +48571,21 @@
         <v>38.477580000000003</v>
       </c>
       <c r="H1274" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1274" t="s">
         <v>2129</v>
       </c>
-      <c r="I1274" t="s">
+      <c r="J1274" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1274" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1275" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1275" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C1275" t="s">
         <v>12</v>
@@ -48595,21 +48603,21 @@
         <v>38.244480000000003</v>
       </c>
       <c r="H1275" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1275" t="s">
         <v>2129</v>
       </c>
-      <c r="I1275" t="s">
+      <c r="J1275" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1275" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1276" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1276" t="s">
         <v>2150</v>
-      </c>
-      <c r="B1276" t="s">
-        <v>2151</v>
       </c>
       <c r="C1276" t="s">
         <v>12</v>
@@ -48627,18 +48635,18 @@
         <v>38.304879999999997</v>
       </c>
       <c r="H1276" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1276" t="s">
         <v>2129</v>
       </c>
-      <c r="I1276" t="s">
+      <c r="J1276" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1276" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1277" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1277" t="s">
         <v>1887</v>
@@ -48659,21 +48667,21 @@
         <v>37.975250000000003</v>
       </c>
       <c r="H1277" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1277" t="s">
         <v>2129</v>
       </c>
-      <c r="I1277" t="s">
+      <c r="J1277" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1277" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1278" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B1278" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C1278" t="s">
         <v>12</v>
@@ -48691,21 +48699,21 @@
         <v>38.695869999999999</v>
       </c>
       <c r="H1278" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1278" t="s">
         <v>2129</v>
       </c>
-      <c r="I1278" t="s">
+      <c r="J1278" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1278" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1279" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B1279" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C1279" t="s">
         <v>12</v>
@@ -48723,21 +48731,21 @@
         <v>37.588619999999999</v>
       </c>
       <c r="H1279" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1279" t="s">
         <v>2129</v>
       </c>
-      <c r="I1279" t="s">
+      <c r="J1279" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1279" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1280" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B1280" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C1280" t="s">
         <v>12</v>
@@ -48755,21 +48763,21 @@
         <v>39.541519999999998</v>
       </c>
       <c r="H1280" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1280" t="s">
         <v>2129</v>
       </c>
-      <c r="I1280" t="s">
+      <c r="J1280" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1280" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1281" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1281" t="s">
         <v>2156</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>2157</v>
       </c>
       <c r="C1281" t="s">
         <v>21</v>
@@ -48787,21 +48795,21 @@
         <v>37.707430199999997</v>
       </c>
       <c r="H1281" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1281" t="s">
         <v>2129</v>
       </c>
-      <c r="I1281" t="s">
+      <c r="J1281" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1281" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1282" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B1282" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C1282" t="s">
         <v>12</v>
@@ -48819,21 +48827,21 @@
         <v>38.960830000000001</v>
       </c>
       <c r="H1282" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1282" t="s">
         <v>2129</v>
       </c>
-      <c r="I1282" t="s">
+      <c r="J1282" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1282" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1283" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1283" t="s">
         <v>2159</v>
-      </c>
-      <c r="B1283" t="s">
-        <v>2160</v>
       </c>
       <c r="C1283" t="s">
         <v>12</v>
@@ -48851,21 +48859,21 @@
         <v>38.286729999999999</v>
       </c>
       <c r="H1283" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1283" t="s">
         <v>2129</v>
       </c>
-      <c r="I1283" t="s">
+      <c r="J1283" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1283" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1284" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B1284" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C1284" t="s">
         <v>12</v>
@@ -48883,13 +48891,13 @@
         <v>38.534230000000001</v>
       </c>
       <c r="H1284" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1284" t="s">
         <v>2129</v>
       </c>
-      <c r="I1284" t="s">
+      <c r="J1284" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1284" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.15">
@@ -48915,21 +48923,21 @@
         <v>38.135023199999999</v>
       </c>
       <c r="H1285" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1285" t="s">
         <v>2129</v>
       </c>
-      <c r="I1285" t="s">
+      <c r="J1285" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1285" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1286" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1286" t="s">
         <v>2162</v>
-      </c>
-      <c r="B1286" t="s">
-        <v>2163</v>
       </c>
       <c r="C1286" t="s">
         <v>12</v>
@@ -48947,21 +48955,21 @@
         <v>38.265279999999997</v>
       </c>
       <c r="H1286" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1286" t="s">
         <v>2129</v>
       </c>
-      <c r="I1286" t="s">
+      <c r="J1286" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1286" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1287" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1287" t="s">
         <v>2164</v>
-      </c>
-      <c r="B1287" t="s">
-        <v>2165</v>
       </c>
       <c r="C1287" t="s">
         <v>12</v>
@@ -48979,21 +48987,21 @@
         <v>37.943370000000002</v>
       </c>
       <c r="H1287" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1287" t="s">
         <v>2129</v>
       </c>
-      <c r="I1287" t="s">
+      <c r="J1287" t="s">
         <v>2130</v>
-      </c>
-      <c r="J1287" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1288" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1288" t="s">
         <v>2166</v>
-      </c>
-      <c r="B1288" t="s">
-        <v>2167</v>
       </c>
       <c r="C1288" t="s">
         <v>12</v>
@@ -49011,21 +49019,21 @@
         <v>40.325569999999999</v>
       </c>
       <c r="H1288" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1288" t="s">
         <v>2168</v>
       </c>
-      <c r="I1288" t="s">
+      <c r="J1288" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1288" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1289" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1289" t="s">
         <v>2171</v>
-      </c>
-      <c r="B1289" t="s">
-        <v>2172</v>
       </c>
       <c r="C1289" t="s">
         <v>12</v>
@@ -49043,21 +49051,21 @@
         <v>40.21649</v>
       </c>
       <c r="H1289" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1289" t="s">
         <v>2168</v>
       </c>
-      <c r="I1289" t="s">
+      <c r="J1289" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1289" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1290" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1290" t="s">
         <v>2173</v>
-      </c>
-      <c r="B1290" t="s">
-        <v>2174</v>
       </c>
       <c r="C1290" t="s">
         <v>12</v>
@@ -49075,21 +49083,21 @@
         <v>40.275910000000003</v>
       </c>
       <c r="H1290" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1290" t="s">
         <v>2168</v>
       </c>
-      <c r="I1290" t="s">
+      <c r="J1290" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1290" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1291" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1291" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C1291" t="s">
         <v>21</v>
@@ -49107,21 +49115,21 @@
         <v>40.114288199999997</v>
       </c>
       <c r="H1291" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1291" t="s">
         <v>2168</v>
       </c>
-      <c r="I1291" t="s">
+      <c r="J1291" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1291" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1292" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1292" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C1292" t="s">
         <v>21</v>
@@ -49139,21 +49147,21 @@
         <v>40.4658321</v>
       </c>
       <c r="H1292" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1292" t="s">
         <v>2168</v>
       </c>
-      <c r="I1292" t="s">
+      <c r="J1292" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1292" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1293" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1293" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C1293" t="s">
         <v>12</v>
@@ -49171,21 +49179,21 @@
         <v>40.130020000000002</v>
       </c>
       <c r="H1293" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1293" t="s">
         <v>2168</v>
       </c>
-      <c r="I1293" t="s">
+      <c r="J1293" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1293" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1294" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1294" t="s">
         <v>2178</v>
-      </c>
-      <c r="B1294" t="s">
-        <v>2179</v>
       </c>
       <c r="C1294" t="s">
         <v>21</v>
@@ -49203,21 +49211,21 @@
         <v>40.550460100000002</v>
       </c>
       <c r="H1294" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1294" t="s">
         <v>2168</v>
       </c>
-      <c r="I1294" t="s">
+      <c r="J1294" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1294" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1295" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1295" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C1295" t="s">
         <v>12</v>
@@ -49235,21 +49243,21 @@
         <v>40.864899999999999</v>
       </c>
       <c r="H1295" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1295" t="s">
         <v>2168</v>
       </c>
-      <c r="I1295" t="s">
+      <c r="J1295" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1295" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1296" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1296" t="s">
         <v>2181</v>
-      </c>
-      <c r="B1296" t="s">
-        <v>2182</v>
       </c>
       <c r="C1296" t="s">
         <v>21</v>
@@ -49267,21 +49275,21 @@
         <v>40.058195099999999</v>
       </c>
       <c r="H1296" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1296" t="s">
         <v>2168</v>
       </c>
-      <c r="I1296" t="s">
+      <c r="J1296" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1296" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1297" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1297" t="s">
         <v>2183</v>
-      </c>
-      <c r="B1297" t="s">
-        <v>2184</v>
       </c>
       <c r="C1297" t="s">
         <v>12</v>
@@ -49299,21 +49307,21 @@
         <v>40.791260000000001</v>
       </c>
       <c r="H1297" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1297" t="s">
         <v>2168</v>
       </c>
-      <c r="I1297" t="s">
+      <c r="J1297" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1297" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1298" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1298" t="s">
         <v>2185</v>
-      </c>
-      <c r="B1298" t="s">
-        <v>2186</v>
       </c>
       <c r="C1298" t="s">
         <v>12</v>
@@ -49331,21 +49339,21 @@
         <v>40.21584</v>
       </c>
       <c r="H1298" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1298" t="s">
         <v>2168</v>
       </c>
-      <c r="I1298" t="s">
+      <c r="J1298" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1298" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1299" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1299" t="s">
         <v>2187</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>2188</v>
       </c>
       <c r="C1299" t="s">
         <v>12</v>
@@ -49363,21 +49371,21 @@
         <v>40.429760000000002</v>
       </c>
       <c r="H1299" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1299" t="s">
         <v>2168</v>
       </c>
-      <c r="I1299" t="s">
+      <c r="J1299" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1299" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1300" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1300" t="s">
         <v>2189</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>2190</v>
       </c>
       <c r="C1300" t="s">
         <v>12</v>
@@ -49395,21 +49403,21 @@
         <v>40.489530000000002</v>
       </c>
       <c r="H1300" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1300" t="s">
         <v>2168</v>
       </c>
-      <c r="I1300" t="s">
+      <c r="J1300" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1300" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1301" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1301" t="s">
         <v>2191</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>2192</v>
       </c>
       <c r="C1301" t="s">
         <v>12</v>
@@ -49427,21 +49435,21 @@
         <v>40.722439999999999</v>
       </c>
       <c r="H1301" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1301" t="s">
         <v>2168</v>
       </c>
-      <c r="I1301" t="s">
+      <c r="J1301" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1301" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1302" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1302" t="s">
         <v>2193</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>2194</v>
       </c>
       <c r="C1302" t="s">
         <v>12</v>
@@ -49459,21 +49467,21 @@
         <v>40.379510000000003</v>
       </c>
       <c r="H1302" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1302" t="s">
         <v>2168</v>
       </c>
-      <c r="I1302" t="s">
+      <c r="J1302" t="s">
         <v>2169</v>
-      </c>
-      <c r="J1302" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1303" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1303" t="s">
         <v>2195</v>
-      </c>
-      <c r="B1303" t="s">
-        <v>2196</v>
       </c>
       <c r="C1303" t="s">
         <v>21</v>
@@ -49491,21 +49499,21 @@
         <v>40.354651099999998</v>
       </c>
       <c r="H1303" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1303" t="s">
         <v>2197</v>
       </c>
-      <c r="I1303" t="s">
+      <c r="J1303" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1303" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1304" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1304" t="s">
         <v>2200</v>
-      </c>
-      <c r="B1304" t="s">
-        <v>2201</v>
       </c>
       <c r="C1304" t="s">
         <v>21</v>
@@ -49523,21 +49531,21 @@
         <v>40.1594093</v>
       </c>
       <c r="H1304" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1304" t="s">
         <v>2197</v>
       </c>
-      <c r="I1304" t="s">
+      <c r="J1304" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1304" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1305" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1305" t="s">
         <v>2202</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>2203</v>
       </c>
       <c r="C1305" t="s">
         <v>12</v>
@@ -49555,21 +49563,21 @@
         <v>40.012219999999999</v>
       </c>
       <c r="H1305" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1305" t="s">
         <v>2197</v>
       </c>
-      <c r="I1305" t="s">
+      <c r="J1305" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1305" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1306" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B1306" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C1306" t="s">
         <v>21</v>
@@ -49587,21 +49595,21 @@
         <v>39.533813199999997</v>
       </c>
       <c r="H1306" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1306" t="s">
         <v>2197</v>
       </c>
-      <c r="I1306" t="s">
+      <c r="J1306" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1306" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1307" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1307" t="s">
         <v>2205</v>
-      </c>
-      <c r="B1307" t="s">
-        <v>2206</v>
       </c>
       <c r="C1307" t="s">
         <v>12</v>
@@ -49619,21 +49627,21 @@
         <v>39.448929999999997</v>
       </c>
       <c r="H1307" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1307" t="s">
         <v>2197</v>
       </c>
-      <c r="I1307" t="s">
+      <c r="J1307" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1307" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1308" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B1308" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C1308" t="s">
         <v>21</v>
@@ -49651,21 +49659,21 @@
         <v>40.1691492</v>
       </c>
       <c r="H1308" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1308" t="s">
         <v>2197</v>
       </c>
-      <c r="I1308" t="s">
+      <c r="J1308" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1308" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1309" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B1309" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C1309" t="s">
         <v>21</v>
@@ -49683,18 +49691,18 @@
         <v>40.226501200000001</v>
       </c>
       <c r="H1309" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1309" t="s">
         <v>2197</v>
       </c>
-      <c r="I1309" t="s">
+      <c r="J1309" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1309" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1310" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B1310" t="s">
         <v>1898</v>
@@ -49715,21 +49723,21 @@
         <v>40.787230000000001</v>
       </c>
       <c r="H1310" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1310" t="s">
         <v>2197</v>
       </c>
-      <c r="I1310" t="s">
+      <c r="J1310" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1310" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1311" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1311" t="s">
         <v>2210</v>
-      </c>
-      <c r="B1311" t="s">
-        <v>2211</v>
       </c>
       <c r="C1311" t="s">
         <v>21</v>
@@ -49747,21 +49755,21 @@
         <v>40.403423199999999</v>
       </c>
       <c r="H1311" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1311" t="s">
         <v>2197</v>
       </c>
-      <c r="I1311" t="s">
+      <c r="J1311" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1311" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1312" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1312" t="s">
         <v>2212</v>
-      </c>
-      <c r="B1312" t="s">
-        <v>2213</v>
       </c>
       <c r="C1312" t="s">
         <v>12</v>
@@ -49779,21 +49787,21 @@
         <v>40.983759999999997</v>
       </c>
       <c r="H1312" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1312" t="s">
         <v>2197</v>
       </c>
-      <c r="I1312" t="s">
+      <c r="J1312" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1312" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1313" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B1313" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="C1313" t="s">
         <v>12</v>
@@ -49811,21 +49819,21 @@
         <v>41.010820000000002</v>
       </c>
       <c r="H1313" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1313" t="s">
         <v>2197</v>
       </c>
-      <c r="I1313" t="s">
+      <c r="J1313" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1313" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1314" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1314" t="s">
         <v>2215</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>2216</v>
       </c>
       <c r="C1314" t="s">
         <v>12</v>
@@ -49843,21 +49851,21 @@
         <v>40.859009999999998</v>
       </c>
       <c r="H1314" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1314" t="s">
         <v>2197</v>
       </c>
-      <c r="I1314" t="s">
+      <c r="J1314" t="s">
         <v>2198</v>
-      </c>
-      <c r="J1314" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1315" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B1315" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C1315" t="s">
         <v>12</v>
@@ -49875,21 +49883,21 @@
         <v>41.215240000000001</v>
       </c>
       <c r="H1315" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1315" t="s">
         <v>2218</v>
       </c>
-      <c r="I1315" t="s">
+      <c r="J1315" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1315" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1316" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1316" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="C1316" t="s">
         <v>21</v>
@@ -49907,21 +49915,21 @@
         <v>40.0374701</v>
       </c>
       <c r="H1316" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1316" t="s">
         <v>2218</v>
       </c>
-      <c r="I1316" t="s">
+      <c r="J1316" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1316" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1317" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1317" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C1317" t="s">
         <v>21</v>
@@ -49939,21 +49947,21 @@
         <v>40.877120099999999</v>
       </c>
       <c r="H1317" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1317" t="s">
         <v>2218</v>
       </c>
-      <c r="I1317" t="s">
+      <c r="J1317" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1317" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1318" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1318" t="s">
         <v>2223</v>
-      </c>
-      <c r="B1318" t="s">
-        <v>2224</v>
       </c>
       <c r="C1318" t="s">
         <v>12</v>
@@ -49971,21 +49979,21 @@
         <v>40.388719999999999</v>
       </c>
       <c r="H1318" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1318" t="s">
         <v>2218</v>
       </c>
-      <c r="I1318" t="s">
+      <c r="J1318" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1318" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1319" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1319" t="s">
         <v>2225</v>
-      </c>
-      <c r="B1319" t="s">
-        <v>2226</v>
       </c>
       <c r="C1319" t="s">
         <v>12</v>
@@ -50003,21 +50011,21 @@
         <v>40.182400000000001</v>
       </c>
       <c r="H1319" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1319" t="s">
         <v>2218</v>
       </c>
-      <c r="I1319" t="s">
+      <c r="J1319" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1319" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1320" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B1320" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C1320" t="s">
         <v>12</v>
@@ -50035,21 +50043,21 @@
         <v>41.215240000000001</v>
       </c>
       <c r="H1320" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1320" t="s">
         <v>2218</v>
       </c>
-      <c r="I1320" t="s">
+      <c r="J1320" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1320" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1321" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B1321" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C1321" t="s">
         <v>21</v>
@@ -50067,21 +50075,21 @@
         <v>39.8292231</v>
       </c>
       <c r="H1321" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1321" t="s">
         <v>2218</v>
       </c>
-      <c r="I1321" t="s">
+      <c r="J1321" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1321" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1322" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1322" t="s">
         <v>2229</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>2230</v>
       </c>
       <c r="C1322" t="s">
         <v>21</v>
@@ -50099,21 +50107,21 @@
         <v>41.054987199999999</v>
       </c>
       <c r="H1322" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1322" t="s">
         <v>2218</v>
       </c>
-      <c r="I1322" t="s">
+      <c r="J1322" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1322" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1323" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1323" t="s">
         <v>2231</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>2232</v>
       </c>
       <c r="C1323" t="s">
         <v>12</v>
@@ -50131,21 +50139,21 @@
         <v>39.683489999999999</v>
       </c>
       <c r="H1323" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1323" t="s">
         <v>2218</v>
       </c>
-      <c r="I1323" t="s">
+      <c r="J1323" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1323" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1324" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1324" t="s">
         <v>2233</v>
-      </c>
-      <c r="B1324" t="s">
-        <v>2234</v>
       </c>
       <c r="C1324" t="s">
         <v>12</v>
@@ -50163,21 +50171,21 @@
         <v>39.576860000000003</v>
       </c>
       <c r="H1324" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1324" t="s">
         <v>2218</v>
       </c>
-      <c r="I1324" t="s">
+      <c r="J1324" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1324" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1325" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1325" t="s">
         <v>2235</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>2236</v>
       </c>
       <c r="C1325" t="s">
         <v>21</v>
@@ -50195,21 +50203,21 @@
         <v>40.819971199999998</v>
       </c>
       <c r="H1325" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1325" t="s">
         <v>2218</v>
       </c>
-      <c r="I1325" t="s">
+      <c r="J1325" t="s">
         <v>2219</v>
-      </c>
-      <c r="J1325" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1326" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1326" t="s">
         <v>2237</v>
-      </c>
-      <c r="B1326" t="s">
-        <v>2238</v>
       </c>
       <c r="C1326" t="s">
         <v>21</v>
@@ -50227,21 +50235,21 @@
         <v>41.587637100000002</v>
       </c>
       <c r="H1326" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1326" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1326" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1326" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1327" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1327" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C1327" t="s">
         <v>12</v>
@@ -50259,21 +50267,21 @@
         <v>39.683489999999999</v>
       </c>
       <c r="H1327" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1327" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1327" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1327" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1328" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1328" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C1328" t="s">
         <v>12</v>
@@ -50291,21 +50299,21 @@
         <v>39.739800000000002</v>
       </c>
       <c r="H1328" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1328" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1328" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1328" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1328" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1329" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B1329" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C1329" t="s">
         <v>21</v>
@@ -50323,21 +50331,21 @@
         <v>41.544246100000002</v>
       </c>
       <c r="H1329" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1329" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1329" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1329" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1329" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1330" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B1330" t="s">
         <v>2244</v>
-      </c>
-      <c r="B1330" t="s">
-        <v>2245</v>
       </c>
       <c r="C1330" t="s">
         <v>12</v>
@@ -50355,21 +50363,21 @@
         <v>39.998899999999999</v>
       </c>
       <c r="H1330" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1330" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1330" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1330" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1330" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1331" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B1331" t="s">
         <v>2246</v>
-      </c>
-      <c r="B1331" t="s">
-        <v>2247</v>
       </c>
       <c r="C1331" t="s">
         <v>12</v>
@@ -50387,21 +50395,21 @@
         <v>40.008670000000002</v>
       </c>
       <c r="H1331" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1331" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1331" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1331" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1331" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1332" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B1332" t="s">
         <v>2248</v>
-      </c>
-      <c r="B1332" t="s">
-        <v>2249</v>
       </c>
       <c r="C1332" t="s">
         <v>21</v>
@@ -50419,21 +50427,21 @@
         <v>41.172115099999999</v>
       </c>
       <c r="H1332" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1332" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1332" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1332" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1333" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1333" t="s">
         <v>2250</v>
-      </c>
-      <c r="B1333" t="s">
-        <v>2251</v>
       </c>
       <c r="C1333" t="s">
         <v>21</v>
@@ -50451,21 +50459,21 @@
         <v>41.523560199999999</v>
       </c>
       <c r="H1333" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1333" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1333" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1333" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1334" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1334" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C1334" t="s">
         <v>21</v>
@@ -50483,21 +50491,21 @@
         <v>41.524110100000001</v>
       </c>
       <c r="H1334" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1334" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1334" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1334" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1334" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1335" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B1335" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C1335" t="s">
         <v>21</v>
@@ -50515,21 +50523,21 @@
         <v>41.523848100000002</v>
       </c>
       <c r="H1335" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1335" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1335" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1335" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1335" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1336" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1336" t="s">
         <v>2254</v>
-      </c>
-      <c r="B1336" t="s">
-        <v>2255</v>
       </c>
       <c r="C1336" t="s">
         <v>21</v>
@@ -50547,21 +50555,21 @@
         <v>41.112632099999999</v>
       </c>
       <c r="H1336" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1336" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1336" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1336" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1336" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1337" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1337" t="s">
         <v>2256</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>2257</v>
       </c>
       <c r="C1337" t="s">
         <v>21</v>
@@ -50579,21 +50587,21 @@
         <v>40.844319200000001</v>
       </c>
       <c r="H1337" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1337" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1337" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1337" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1337" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1338" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B1338" t="s">
         <v>2258</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>2259</v>
       </c>
       <c r="C1338" t="s">
         <v>21</v>
@@ -50611,21 +50619,21 @@
         <v>41.5691962</v>
       </c>
       <c r="H1338" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1338" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1338" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1338" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1338" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1339" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B1339" t="s">
         <v>2260</v>
-      </c>
-      <c r="B1339" t="s">
-        <v>2261</v>
       </c>
       <c r="C1339" t="s">
         <v>12</v>
@@ -50643,13 +50651,13 @@
         <v>39.681739999999998</v>
       </c>
       <c r="H1339" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1339" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1339" t="s">
         <v>2239</v>
-      </c>
-      <c r="I1339" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J1339" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.15">
@@ -50657,7 +50665,7 @@
         <v>678</v>
       </c>
       <c r="B1340" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C1340" t="s">
         <v>21</v>
@@ -50675,13 +50683,13 @@
         <v>41.3131512</v>
       </c>
       <c r="H1340" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1340" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1340" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1340" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1340" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.15">
@@ -50707,21 +50715,21 @@
         <v>40.929031199999997</v>
       </c>
       <c r="H1341" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1341" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1341" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1341" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1341" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1342" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B1342" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C1342" t="s">
         <v>21</v>
@@ -50739,21 +50747,21 @@
         <v>41.561833100000001</v>
       </c>
       <c r="H1342" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1342" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1342" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1342" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1342" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1343" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1343" t="s">
         <v>2265</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>2266</v>
       </c>
       <c r="C1343" t="s">
         <v>21</v>
@@ -50771,21 +50779,21 @@
         <v>41.910881199999999</v>
       </c>
       <c r="H1343" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1343" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1343" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1343" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1343" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1344" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B1344" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C1344" t="s">
         <v>21</v>
@@ -50803,21 +50811,21 @@
         <v>41.031291099999997</v>
       </c>
       <c r="H1344" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1344" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1344" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1344" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1344" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1345" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B1345" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C1345" t="s">
         <v>21</v>
@@ -50835,21 +50843,21 @@
         <v>41.6803211</v>
       </c>
       <c r="H1345" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1345" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1345" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1345" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1345" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1346" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1346" t="s">
         <v>2269</v>
-      </c>
-      <c r="B1346" t="s">
-        <v>2270</v>
       </c>
       <c r="C1346" t="s">
         <v>21</v>
@@ -50867,21 +50875,21 @@
         <v>40.944296100000003</v>
       </c>
       <c r="H1346" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1346" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1346" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1346" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1346" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1347" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1347" t="s">
         <v>2271</v>
-      </c>
-      <c r="B1347" t="s">
-        <v>2272</v>
       </c>
       <c r="C1347" t="s">
         <v>21</v>
@@ -50899,21 +50907,21 @@
         <v>41.510612100000003</v>
       </c>
       <c r="H1347" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1347" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1347" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1347" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1347" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1348" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B1348" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C1348" t="s">
         <v>21</v>
@@ -50931,21 +50939,21 @@
         <v>41.350793099999997</v>
       </c>
       <c r="H1348" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1348" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1348" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1348" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1348" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1349" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B1349" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C1349" t="s">
         <v>21</v>
@@ -50963,21 +50971,21 @@
         <v>41.128557899999997</v>
       </c>
       <c r="H1349" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1349" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1349" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1349" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1349" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1350" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B1350" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C1350" t="s">
         <v>21</v>
@@ -50995,21 +51003,21 @@
         <v>42.238012099999999</v>
       </c>
       <c r="H1350" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1350" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1350" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1350" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1350" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1351" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1351" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C1351" t="s">
         <v>21</v>
@@ -51027,21 +51035,21 @@
         <v>40.807850100000003</v>
       </c>
       <c r="H1351" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1351" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1351" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1351" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1351" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1352" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1352" t="s">
         <v>2277</v>
-      </c>
-      <c r="B1352" t="s">
-        <v>2278</v>
       </c>
       <c r="C1352" t="s">
         <v>21</v>
@@ -51059,21 +51067,21 @@
         <v>40.464670099999999</v>
       </c>
       <c r="H1352" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1352" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1352" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1352" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1352" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1353" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B1353" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C1353" t="s">
         <v>21</v>
@@ -51091,21 +51099,21 @@
         <v>40.365050099999998</v>
       </c>
       <c r="H1353" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1353" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1353" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1353" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1353" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1354" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1354" t="s">
         <v>2280</v>
-      </c>
-      <c r="B1354" t="s">
-        <v>2281</v>
       </c>
       <c r="C1354" t="s">
         <v>21</v>
@@ -51123,21 +51131,21 @@
         <v>40.706372100000003</v>
       </c>
       <c r="H1354" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1354" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1354" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1354" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1354" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1355" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1355" t="s">
         <v>2282</v>
-      </c>
-      <c r="B1355" t="s">
-        <v>2283</v>
       </c>
       <c r="C1355" t="s">
         <v>21</v>
@@ -51155,21 +51163,21 @@
         <v>40.573487200000002</v>
       </c>
       <c r="H1355" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1355" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1355" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1355" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1355" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1356" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1356" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C1356" t="s">
         <v>21</v>
@@ -51187,21 +51195,21 @@
         <v>39.724290099999997</v>
       </c>
       <c r="H1356" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1356" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1356" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1356" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1356" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1357" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1357" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C1357" t="s">
         <v>21</v>
@@ -51219,21 +51227,21 @@
         <v>39.149703600000002</v>
       </c>
       <c r="H1357" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I1357" t="s">
+        <v>2261</v>
+      </c>
+      <c r="J1357" t="s">
         <v>2262</v>
-      </c>
-      <c r="I1357" t="s">
-        <v>2262</v>
-      </c>
-      <c r="J1357" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1358" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1358" t="s">
         <v>2286</v>
-      </c>
-      <c r="B1358" t="s">
-        <v>2287</v>
       </c>
       <c r="C1358" t="s">
         <v>21</v>
@@ -51251,21 +51259,21 @@
         <v>41.610647700000001</v>
       </c>
       <c r="H1358" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I1358" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J1358" t="s">
         <v>2288</v>
-      </c>
-      <c r="I1358" t="s">
-        <v>2288</v>
-      </c>
-      <c r="J1358" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1359" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1359" t="s">
         <v>2290</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>2291</v>
       </c>
       <c r="C1359" t="s">
         <v>21</v>
@@ -51283,21 +51291,21 @@
         <v>41.729509999999998</v>
       </c>
       <c r="H1359" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I1359" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J1359" t="s">
         <v>2288</v>
-      </c>
-      <c r="I1359" t="s">
-        <v>2288</v>
-      </c>
-      <c r="J1359" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1360" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1360" t="s">
         <v>2292</v>
-      </c>
-      <c r="B1360" t="s">
-        <v>2293</v>
       </c>
       <c r="C1360" t="s">
         <v>21</v>
@@ -51315,21 +51323,21 @@
         <v>40.598237400000002</v>
       </c>
       <c r="H1360" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I1360" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J1360" t="s">
         <v>2288</v>
-      </c>
-      <c r="I1360" t="s">
-        <v>2288</v>
-      </c>
-      <c r="J1360" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1361" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B1361" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C1361" t="s">
         <v>21</v>
@@ -51347,21 +51355,21 @@
         <v>39.0290544</v>
       </c>
       <c r="H1361" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1361" t="s">
         <v>2295</v>
       </c>
-      <c r="I1361" t="s">
+      <c r="J1361" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1361" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1362" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1362" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C1362" t="s">
         <v>21</v>
@@ -51379,21 +51387,21 @@
         <v>39.225797999999998</v>
       </c>
       <c r="H1362" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1362" t="s">
         <v>2295</v>
       </c>
-      <c r="I1362" t="s">
+      <c r="J1362" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1362" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1363" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1363" t="s">
         <v>2299</v>
-      </c>
-      <c r="B1363" t="s">
-        <v>2300</v>
       </c>
       <c r="C1363" t="s">
         <v>21</v>
@@ -51411,21 +51419,21 @@
         <v>40.1695031</v>
       </c>
       <c r="H1363" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1363" t="s">
         <v>2295</v>
       </c>
-      <c r="I1363" t="s">
+      <c r="J1363" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1363" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1364" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B1364" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C1364" t="s">
         <v>21</v>
@@ -51443,21 +51451,21 @@
         <v>38.425083100000002</v>
       </c>
       <c r="H1364" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1364" t="s">
         <v>2295</v>
       </c>
-      <c r="I1364" t="s">
+      <c r="J1364" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1364" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1365" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B1365" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C1365" t="s">
         <v>21</v>
@@ -51475,21 +51483,21 @@
         <v>38.760272399999998</v>
       </c>
       <c r="H1365" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1365" t="s">
         <v>2295</v>
       </c>
-      <c r="I1365" t="s">
+      <c r="J1365" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1365" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1366" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1366" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C1366" t="s">
         <v>21</v>
@@ -51507,21 +51515,21 @@
         <v>38.911738</v>
       </c>
       <c r="H1366" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1366" t="s">
         <v>2295</v>
       </c>
-      <c r="I1366" t="s">
+      <c r="J1366" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1366" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1367" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B1367" t="s">
         <v>2304</v>
-      </c>
-      <c r="B1367" t="s">
-        <v>2305</v>
       </c>
       <c r="C1367" t="s">
         <v>21</v>
@@ -51539,21 +51547,21 @@
         <v>39.597749999999998</v>
       </c>
       <c r="H1367" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1367" t="s">
         <v>2295</v>
       </c>
-      <c r="I1367" t="s">
+      <c r="J1367" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1367" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1368" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1368" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C1368" t="s">
         <v>21</v>
@@ -51571,21 +51579,21 @@
         <v>38.467763400000003</v>
       </c>
       <c r="H1368" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1368" t="s">
         <v>2295</v>
       </c>
-      <c r="I1368" t="s">
+      <c r="J1368" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1368" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1369" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1369" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="C1369" t="s">
         <v>21</v>
@@ -51603,21 +51611,21 @@
         <v>39.143200999999998</v>
       </c>
       <c r="H1369" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1369" t="s">
         <v>2295</v>
       </c>
-      <c r="I1369" t="s">
+      <c r="J1369" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1369" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1370" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B1370" t="s">
         <v>2308</v>
-      </c>
-      <c r="B1370" t="s">
-        <v>2309</v>
       </c>
       <c r="C1370" t="s">
         <v>21</v>
@@ -51635,21 +51643,21 @@
         <v>38.037188999999998</v>
       </c>
       <c r="H1370" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1370" t="s">
         <v>2295</v>
       </c>
-      <c r="I1370" t="s">
+      <c r="J1370" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1370" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1371" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1371" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C1371" t="s">
         <v>21</v>
@@ -51667,21 +51675,21 @@
         <v>38.507189099999998</v>
       </c>
       <c r="H1371" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1371" t="s">
         <v>2295</v>
       </c>
-      <c r="I1371" t="s">
+      <c r="J1371" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1371" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1372" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1372" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C1372" t="s">
         <v>21</v>
@@ -51699,21 +51707,21 @@
         <v>38.263387000000002</v>
       </c>
       <c r="H1372" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1372" t="s">
         <v>2295</v>
       </c>
-      <c r="I1372" t="s">
+      <c r="J1372" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1372" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1373" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1373" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C1373" t="s">
         <v>21</v>
@@ -51731,21 +51739,21 @@
         <v>38.670312799999998</v>
       </c>
       <c r="H1373" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1373" t="s">
         <v>2295</v>
       </c>
-      <c r="I1373" t="s">
+      <c r="J1373" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1373" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1374" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1374" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="C1374" t="s">
         <v>21</v>
@@ -51763,21 +51771,21 @@
         <v>38.364807999999996</v>
       </c>
       <c r="H1374" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1374" t="s">
         <v>2295</v>
       </c>
-      <c r="I1374" t="s">
+      <c r="J1374" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1374" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1375" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B1375" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C1375" t="s">
         <v>21</v>
@@ -51795,21 +51803,21 @@
         <v>39.218919999999997</v>
       </c>
       <c r="H1375" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1375" t="s">
         <v>2295</v>
       </c>
-      <c r="I1375" t="s">
+      <c r="J1375" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1375" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1376" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B1376" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C1376" t="s">
         <v>21</v>
@@ -51827,21 +51835,21 @@
         <v>38.322073000000003</v>
       </c>
       <c r="H1376" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1376" t="s">
         <v>2295</v>
       </c>
-      <c r="I1376" t="s">
+      <c r="J1376" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1376" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1377" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B1377" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C1377" t="s">
         <v>21</v>
@@ -51859,21 +51867,21 @@
         <v>39.428317999999997</v>
       </c>
       <c r="H1377" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1377" t="s">
         <v>2295</v>
       </c>
-      <c r="I1377" t="s">
+      <c r="J1377" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1377" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1378" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B1378" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C1378" t="s">
         <v>21</v>
@@ -51891,21 +51899,21 @@
         <v>37.763694800000003</v>
       </c>
       <c r="H1378" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1378" t="s">
         <v>2295</v>
       </c>
-      <c r="I1378" t="s">
+      <c r="J1378" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1378" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1379" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1379" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="C1379" t="s">
         <v>21</v>
@@ -51923,21 +51931,21 @@
         <v>39.044868899999997</v>
       </c>
       <c r="H1379" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1379" t="s">
         <v>2295</v>
       </c>
-      <c r="I1379" t="s">
+      <c r="J1379" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1379" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1380" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B1380" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C1380" t="s">
         <v>21</v>
@@ -51955,21 +51963,21 @@
         <v>38.158757000000001</v>
       </c>
       <c r="H1380" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1380" t="s">
         <v>2295</v>
       </c>
-      <c r="I1380" t="s">
+      <c r="J1380" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1380" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1381" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B1381" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="C1381" t="s">
         <v>21</v>
@@ -51987,21 +51995,21 @@
         <v>38.537333199999999</v>
       </c>
       <c r="H1381" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1381" t="s">
         <v>2295</v>
       </c>
-      <c r="I1381" t="s">
+      <c r="J1381" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1381" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1382" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B1382" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C1382" t="s">
         <v>21</v>
@@ -52019,21 +52027,21 @@
         <v>38.250492199999997</v>
       </c>
       <c r="H1382" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1382" t="s">
         <v>2295</v>
       </c>
-      <c r="I1382" t="s">
+      <c r="J1382" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1382" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1383" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1383" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C1383" t="s">
         <v>21</v>
@@ -52051,21 +52059,21 @@
         <v>40.007311600000001</v>
       </c>
       <c r="H1383" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I1383" t="s">
         <v>2295</v>
       </c>
-      <c r="I1383" t="s">
+      <c r="J1383" t="s">
         <v>2296</v>
-      </c>
-      <c r="J1383" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1384" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1384" t="s">
         <v>2323</v>
-      </c>
-      <c r="B1384" t="s">
-        <v>2324</v>
       </c>
       <c r="C1384" t="s">
         <v>21</v>
@@ -52083,21 +52091,21 @@
         <v>39.979320199999997</v>
       </c>
       <c r="H1384" t="s">
+        <v>2324</v>
+      </c>
+      <c r="I1384" t="s">
         <v>2325</v>
       </c>
-      <c r="I1384" t="s">
+      <c r="J1384" t="s">
         <v>2326</v>
-      </c>
-      <c r="J1384" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1385" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B1385" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C1385" t="s">
         <v>21</v>
@@ -52115,13 +52123,13 @@
         <v>39.393536099999999</v>
       </c>
       <c r="H1385" t="s">
+        <v>2324</v>
+      </c>
+      <c r="I1385" t="s">
         <v>2325</v>
       </c>
-      <c r="I1385" t="s">
+      <c r="J1385" t="s">
         <v>2326</v>
-      </c>
-      <c r="J1385" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.15">
@@ -52147,21 +52155,21 @@
         <v>39.750710099999999</v>
       </c>
       <c r="H1386" t="s">
+        <v>2324</v>
+      </c>
+      <c r="I1386" t="s">
         <v>2325</v>
       </c>
-      <c r="I1386" t="s">
+      <c r="J1386" t="s">
         <v>2326</v>
-      </c>
-      <c r="J1386" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1387" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1387" t="s">
         <v>2329</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>2330</v>
       </c>
       <c r="C1387" t="s">
         <v>21</v>
@@ -52179,21 +52187,21 @@
         <v>39.841637200000001</v>
       </c>
       <c r="H1387" t="s">
+        <v>2324</v>
+      </c>
+      <c r="I1387" t="s">
         <v>2325</v>
       </c>
-      <c r="I1387" t="s">
+      <c r="J1387" t="s">
         <v>2326</v>
-      </c>
-      <c r="J1387" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1388" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B1388" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C1388" t="s">
         <v>12</v>
@@ -52211,21 +52219,21 @@
         <v>23.134623999999999</v>
       </c>
       <c r="H1388" t="s">
+        <v>2331</v>
+      </c>
+      <c r="I1388" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1388" t="s">
         <v>2332</v>
-      </c>
-      <c r="I1388" t="s">
-        <v>2332</v>
-      </c>
-      <c r="J1388" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1389" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B1389" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C1389" t="s">
         <v>12</v>
@@ -52243,21 +52251,21 @@
         <v>23.172246999999999</v>
       </c>
       <c r="H1389" t="s">
+        <v>2331</v>
+      </c>
+      <c r="I1389" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1389" t="s">
         <v>2332</v>
-      </c>
-      <c r="I1389" t="s">
-        <v>2332</v>
-      </c>
-      <c r="J1389" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1390" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B1390" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C1390" t="s">
         <v>12</v>
@@ -52275,21 +52283,21 @@
         <v>23.901392999999999</v>
       </c>
       <c r="H1390" t="s">
+        <v>2331</v>
+      </c>
+      <c r="I1390" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1390" t="s">
         <v>2332</v>
-      </c>
-      <c r="I1390" t="s">
-        <v>2332</v>
-      </c>
-      <c r="J1390" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1391" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B1391" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C1391" t="s">
         <v>12</v>
@@ -52307,21 +52315,21 @@
         <v>24.060002999999998</v>
       </c>
       <c r="H1391" t="s">
+        <v>2331</v>
+      </c>
+      <c r="I1391" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1391" t="s">
         <v>2332</v>
-      </c>
-      <c r="I1391" t="s">
-        <v>2332</v>
-      </c>
-      <c r="J1391" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1392" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B1392" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C1392" t="s">
         <v>21</v>
@@ -52339,21 +52347,21 @@
         <v>23.446654200000001</v>
       </c>
       <c r="H1392" t="s">
+        <v>2331</v>
+      </c>
+      <c r="I1392" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1392" t="s">
         <v>2332</v>
-      </c>
-      <c r="I1392" t="s">
-        <v>2332</v>
-      </c>
-      <c r="J1392" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1393" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1393" t="s">
         <v>2338</v>
-      </c>
-      <c r="B1393" t="s">
-        <v>2339</v>
       </c>
       <c r="C1393" t="s">
         <v>12</v>
@@ -52371,21 +52379,21 @@
         <v>23.687850999999998</v>
       </c>
       <c r="H1393" t="s">
+        <v>2331</v>
+      </c>
+      <c r="I1393" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1393" t="s">
         <v>2332</v>
-      </c>
-      <c r="I1393" t="s">
-        <v>2332</v>
-      </c>
-      <c r="J1393" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1394" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B1394" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C1394" t="s">
         <v>12</v>
@@ -52403,21 +52411,21 @@
         <v>23.215336000000001</v>
       </c>
       <c r="H1394" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1394" t="s">
         <v>2341</v>
       </c>
-      <c r="I1394" t="s">
+      <c r="J1394" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1394" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1395" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1395" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C1395" t="s">
         <v>12</v>
@@ -52435,21 +52443,21 @@
         <v>22.892842999999999</v>
       </c>
       <c r="H1395" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1395" t="s">
         <v>2341</v>
       </c>
-      <c r="I1395" t="s">
+      <c r="J1395" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1395" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1396" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1396" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C1396" t="s">
         <v>12</v>
@@ -52467,21 +52475,21 @@
         <v>23.156472999999998</v>
       </c>
       <c r="H1396" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1396" t="s">
         <v>2341</v>
       </c>
-      <c r="I1396" t="s">
+      <c r="J1396" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1396" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1397" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1397" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C1397" t="s">
         <v>12</v>
@@ -52499,21 +52507,21 @@
         <v>24.39517</v>
       </c>
       <c r="H1397" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1397" t="s">
         <v>2341</v>
       </c>
-      <c r="I1397" t="s">
+      <c r="J1397" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1397" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1398" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1398" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="C1398" t="s">
         <v>12</v>
@@ -52531,21 +52539,21 @@
         <v>23.537882</v>
       </c>
       <c r="H1398" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1398" t="s">
         <v>2341</v>
       </c>
-      <c r="I1398" t="s">
+      <c r="J1398" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1398" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1399" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1399" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="C1399" t="s">
         <v>21</v>
@@ -52563,21 +52571,21 @@
         <v>23.918627900000001</v>
       </c>
       <c r="H1399" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1399" t="s">
         <v>2341</v>
       </c>
-      <c r="I1399" t="s">
+      <c r="J1399" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1399" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1400" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1400" t="s">
         <v>2349</v>
-      </c>
-      <c r="B1400" t="s">
-        <v>2350</v>
       </c>
       <c r="C1400" t="s">
         <v>12</v>
@@ -52586,7 +52594,7 @@
         <v>80207</v>
       </c>
       <c r="E1400" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="F1400">
         <v>109.429863</v>
@@ -52595,21 +52603,21 @@
         <v>24.279474</v>
       </c>
       <c r="H1400" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1400" t="s">
         <v>2341</v>
       </c>
-      <c r="I1400" t="s">
+      <c r="J1400" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1400" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1401" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1401" t="s">
         <v>2352</v>
-      </c>
-      <c r="B1401" t="s">
-        <v>2353</v>
       </c>
       <c r="C1401" t="s">
         <v>12</v>
@@ -52627,21 +52635,21 @@
         <v>22.420197000000002</v>
       </c>
       <c r="H1401" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1401" t="s">
         <v>2341</v>
       </c>
-      <c r="I1401" t="s">
+      <c r="J1401" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1401" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1402" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1402" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C1402" t="s">
         <v>12</v>
@@ -52659,21 +52667,21 @@
         <v>24.490729999999999</v>
       </c>
       <c r="H1402" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1402" t="s">
         <v>2341</v>
       </c>
-      <c r="I1402" t="s">
+      <c r="J1402" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1402" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1403" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1403" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C1403" t="s">
         <v>12</v>
@@ -52691,21 +52699,21 @@
         <v>23.324801000000001</v>
       </c>
       <c r="H1403" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1403" t="s">
         <v>2341</v>
       </c>
-      <c r="I1403" t="s">
+      <c r="J1403" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1403" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1404" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1404" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="C1404" t="s">
         <v>12</v>
@@ -52723,21 +52731,21 @@
         <v>23.188704000000001</v>
       </c>
       <c r="H1404" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1404" t="s">
         <v>2341</v>
       </c>
-      <c r="I1404" t="s">
+      <c r="J1404" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1404" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1405" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1405" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="C1405" t="s">
         <v>12</v>
@@ -52755,13 +52763,13 @@
         <v>22.351666000000002</v>
       </c>
       <c r="H1405" t="s">
+        <v>2340</v>
+      </c>
+      <c r="I1405" t="s">
         <v>2341</v>
       </c>
-      <c r="I1405" t="s">
+      <c r="J1405" t="s">
         <v>2342</v>
-      </c>
-      <c r="J1405" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.15">
@@ -52769,7 +52777,7 @@
         <v>1620</v>
       </c>
       <c r="B1406" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="C1406" t="s">
         <v>12</v>
@@ -52787,21 +52795,21 @@
         <v>23.486898</v>
       </c>
       <c r="H1406" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1406" t="s">
         <v>2359</v>
       </c>
-      <c r="I1406" t="s">
+      <c r="J1406" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1406" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1407" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1407" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="C1407" t="s">
         <v>12</v>
@@ -52819,21 +52827,21 @@
         <v>25.118279000000001</v>
       </c>
       <c r="H1407" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1407" t="s">
         <v>2359</v>
       </c>
-      <c r="I1407" t="s">
+      <c r="J1407" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1407" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1408" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1408" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C1408" t="s">
         <v>12</v>
@@ -52851,21 +52859,21 @@
         <v>23.056920999999999</v>
       </c>
       <c r="H1408" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1408" t="s">
         <v>2359</v>
       </c>
-      <c r="I1408" t="s">
+      <c r="J1408" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1408" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1409" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B1409" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C1409" t="s">
         <v>12</v>
@@ -52883,21 +52891,21 @@
         <v>23.994185000000002</v>
       </c>
       <c r="H1409" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1409" t="s">
         <v>2359</v>
       </c>
-      <c r="I1409" t="s">
+      <c r="J1409" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1409" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1410" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1410" t="s">
         <v>2365</v>
-      </c>
-      <c r="B1410" t="s">
-        <v>2366</v>
       </c>
       <c r="C1410" t="s">
         <v>12</v>
@@ -52915,21 +52923,21 @@
         <v>24.336818999999998</v>
       </c>
       <c r="H1410" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1410" t="s">
         <v>2359</v>
       </c>
-      <c r="I1410" t="s">
+      <c r="J1410" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1410" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1411" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1411" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C1411" t="s">
         <v>12</v>
@@ -52947,21 +52955,21 @@
         <v>23.146791</v>
       </c>
       <c r="H1411" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1411" t="s">
         <v>2359</v>
       </c>
-      <c r="I1411" t="s">
+      <c r="J1411" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1411" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1412" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1412" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C1412" t="s">
         <v>12</v>
@@ -52979,21 +52987,21 @@
         <v>24.936453</v>
       </c>
       <c r="H1412" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1412" t="s">
         <v>2359</v>
       </c>
-      <c r="I1412" t="s">
+      <c r="J1412" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1412" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1413" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1413" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C1413" t="s">
         <v>12</v>
@@ -53011,21 +53019,21 @@
         <v>24.526541000000002</v>
       </c>
       <c r="H1413" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1413" t="s">
         <v>2359</v>
       </c>
-      <c r="I1413" t="s">
+      <c r="J1413" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1413" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1414" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B1414" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C1414" t="s">
         <v>12</v>
@@ -53043,21 +53051,21 @@
         <v>24.496013999999999</v>
       </c>
       <c r="H1414" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1414" t="s">
         <v>2359</v>
       </c>
-      <c r="I1414" t="s">
+      <c r="J1414" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1414" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1415" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1415" t="s">
         <v>2371</v>
-      </c>
-      <c r="B1415" t="s">
-        <v>2372</v>
       </c>
       <c r="C1415" t="s">
         <v>12</v>
@@ -53075,21 +53083,21 @@
         <v>23.455824</v>
       </c>
       <c r="H1415" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I1415" t="s">
         <v>2359</v>
       </c>
-      <c r="I1415" t="s">
+      <c r="J1415" t="s">
         <v>2360</v>
-      </c>
-      <c r="J1415" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1416" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1416" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C1416" t="s">
         <v>21</v>
@@ -53107,13 +53115,13 @@
         <v>21.045795999999999</v>
       </c>
       <c r="H1416" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1416" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1416" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1416" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.15">
@@ -53139,21 +53147,21 @@
         <v>20.312412999999999</v>
       </c>
       <c r="H1417" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1417" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1417" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1417" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1418" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1418" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C1418" t="s">
         <v>21</v>
@@ -53171,21 +53179,21 @@
         <v>21.087938999999999</v>
       </c>
       <c r="H1418" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1418" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1418" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1418" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1419" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1419" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C1419" t="s">
         <v>21</v>
@@ -53203,21 +53211,21 @@
         <v>21.292254</v>
       </c>
       <c r="H1419" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1419" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1419" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1419" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1420" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1420" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C1420" t="s">
         <v>21</v>
@@ -53235,21 +53243,21 @@
         <v>20.9409782</v>
       </c>
       <c r="H1420" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1420" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1420" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1420" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1421" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1421" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C1421" t="s">
         <v>21</v>
@@ -53267,21 +53275,21 @@
         <v>21.203431999999999</v>
       </c>
       <c r="H1421" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1421" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1421" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1421" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1422" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1422" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C1422" t="s">
         <v>21</v>
@@ -53299,21 +53307,21 @@
         <v>20.698616000000001</v>
       </c>
       <c r="H1422" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1422" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1422" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1422" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1423" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1423" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C1423" t="s">
         <v>21</v>
@@ -53331,21 +53339,21 @@
         <v>21.250482999999999</v>
       </c>
       <c r="H1423" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1423" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1423" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1423" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1424" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1424" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C1424" t="s">
         <v>21</v>
@@ -53363,21 +53371,21 @@
         <v>21.174163700000001</v>
       </c>
       <c r="H1424" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1424" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1424" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1424" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1425" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1425" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C1425" t="s">
         <v>21</v>
@@ -53395,21 +53403,21 @@
         <v>20.966667000000001</v>
       </c>
       <c r="H1425" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J1425" t="s">
         <v>2374</v>
-      </c>
-      <c r="I1425" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J1425" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1426" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1426" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C1426" t="s">
         <v>12</v>
@@ -53427,21 +53435,21 @@
         <v>20.261126000000001</v>
       </c>
       <c r="H1426" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I1426" t="s">
         <v>2385</v>
       </c>
-      <c r="I1426" t="s">
+      <c r="J1426" t="s">
         <v>2386</v>
-      </c>
-      <c r="J1426" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1427" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1427" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1427" t="s">
         <v>12</v>
@@ -53459,18 +53467,18 @@
         <v>22.071804</v>
       </c>
       <c r="H1427" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I1427" t="s">
         <v>2385</v>
       </c>
-      <c r="I1427" t="s">
+      <c r="J1427" t="s">
         <v>2386</v>
-      </c>
-      <c r="J1427" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1428" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1428" t="s">
         <v>1412</v>
@@ -53491,21 +53499,21 @@
         <v>21.913257999999999</v>
       </c>
       <c r="H1428" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I1428" t="s">
         <v>2385</v>
       </c>
-      <c r="I1428" t="s">
+      <c r="J1428" t="s">
         <v>2386</v>
-      </c>
-      <c r="J1428" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1429" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1429" t="s">
         <v>2390</v>
-      </c>
-      <c r="B1429" t="s">
-        <v>2391</v>
       </c>
       <c r="C1429" t="s">
         <v>12</v>
@@ -53523,21 +53531,21 @@
         <v>22.475028999999999</v>
       </c>
       <c r="H1429" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I1429" t="s">
         <v>2385</v>
       </c>
-      <c r="I1429" t="s">
+      <c r="J1429" t="s">
         <v>2386</v>
-      </c>
-      <c r="J1429" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1430" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1430" t="s">
         <v>2392</v>
-      </c>
-      <c r="B1430" t="s">
-        <v>2393</v>
       </c>
       <c r="C1430" t="s">
         <v>21</v>
@@ -53555,21 +53563,21 @@
         <v>19.868725000000001</v>
       </c>
       <c r="H1430" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J1430" t="s">
         <v>2394</v>
-      </c>
-      <c r="I1430" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J1430" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1431" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B1431" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C1431" t="s">
         <v>21</v>
@@ -53587,21 +53595,21 @@
         <v>20.109971000000002</v>
       </c>
       <c r="H1431" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J1431" t="s">
         <v>2394</v>
-      </c>
-      <c r="I1431" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J1431" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1432" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B1432" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C1432" t="s">
         <v>21</v>
@@ -53619,21 +53627,21 @@
         <v>20.119202999999999</v>
       </c>
       <c r="H1432" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J1432" t="s">
         <v>2394</v>
-      </c>
-      <c r="I1432" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J1432" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1433" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B1433" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C1433" t="s">
         <v>21</v>
@@ -53651,21 +53659,21 @@
         <v>20.087212000000001</v>
       </c>
       <c r="H1433" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J1433" t="s">
         <v>2394</v>
-      </c>
-      <c r="I1433" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J1433" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1434" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B1434" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C1434" t="s">
         <v>21</v>
@@ -53683,21 +53691,21 @@
         <v>19.005150100000002</v>
       </c>
       <c r="H1434" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J1434" t="s">
         <v>2394</v>
-      </c>
-      <c r="I1434" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J1434" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1435" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B1435" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C1435" t="s">
         <v>21</v>
@@ -53715,21 +53723,21 @@
         <v>20.261838000000001</v>
       </c>
       <c r="H1435" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J1435" t="s">
         <v>2394</v>
-      </c>
-      <c r="I1435" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J1435" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1436" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1436" t="s">
         <v>2401</v>
-      </c>
-      <c r="B1436" t="s">
-        <v>2402</v>
       </c>
       <c r="C1436" t="s">
         <v>21</v>
@@ -53747,21 +53755,21 @@
         <v>19.685067</v>
       </c>
       <c r="H1436" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J1436" t="s">
         <v>2394</v>
-      </c>
-      <c r="I1436" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J1436" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1437" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B1437" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C1437" t="s">
         <v>21</v>
@@ -53779,21 +53787,21 @@
         <v>17.2319861</v>
       </c>
       <c r="H1437" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J1437" t="s">
         <v>2404</v>
-      </c>
-      <c r="I1437" t="s">
-        <v>2404</v>
-      </c>
-      <c r="J1437" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1438" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1438" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C1438" t="s">
         <v>21</v>
@@ -53811,21 +53819,21 @@
         <v>17.636315100000001</v>
       </c>
       <c r="H1438" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J1438" t="s">
         <v>2404</v>
-      </c>
-      <c r="I1438" t="s">
-        <v>2404</v>
-      </c>
-      <c r="J1438" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1439" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B1439" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C1439" t="s">
         <v>21</v>
@@ -53843,21 +53851,21 @@
         <v>16.501456099999999</v>
       </c>
       <c r="H1439" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J1439" t="s">
         <v>2404</v>
-      </c>
-      <c r="I1439" t="s">
-        <v>2404</v>
-      </c>
-      <c r="J1439" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1440" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1440" t="s">
         <v>2408</v>
-      </c>
-      <c r="B1440" t="s">
-        <v>2409</v>
       </c>
       <c r="C1440" t="s">
         <v>21</v>
@@ -53875,21 +53883,21 @@
         <v>16.816706700000001</v>
       </c>
       <c r="H1440" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J1440" t="s">
         <v>2404</v>
-      </c>
-      <c r="I1440" t="s">
-        <v>2404</v>
-      </c>
-      <c r="J1440" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1441" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1441" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C1441" t="s">
         <v>21</v>
@@ -53907,24 +53915,24 @@
         <v>15.856038099999999</v>
       </c>
       <c r="H1441" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J1441" t="s">
         <v>2404</v>
-      </c>
-      <c r="I1441" t="s">
-        <v>2404</v>
-      </c>
-      <c r="J1441" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1442" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C1442" t="s">
         <v>2411</v>
-      </c>
-      <c r="B1442" t="s">
-        <v>2411</v>
-      </c>
-      <c r="C1442" t="s">
-        <v>2412</v>
       </c>
       <c r="D1442" s="1">
         <v>23601</v>
@@ -53939,10 +53947,10 @@
         <v>37.803157200000001</v>
       </c>
       <c r="H1442" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1442" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1442" t="s">
-        <v>2443</v>
       </c>
       <c r="J1442">
         <v>236</v>
@@ -53950,13 +53958,13 @@
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1443" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1443" t="s">
         <v>2413</v>
       </c>
-      <c r="B1443" t="s">
-        <v>2414</v>
-      </c>
       <c r="C1443" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1443" s="1">
         <v>23607</v>
@@ -53971,10 +53979,10 @@
         <v>37.188333200000002</v>
       </c>
       <c r="H1443" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1443" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1443" t="s">
-        <v>2443</v>
       </c>
       <c r="J1443">
         <v>236</v>
@@ -53982,13 +53990,13 @@
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1444" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1444" t="s">
         <v>2415</v>
       </c>
-      <c r="B1444" t="s">
-        <v>2416</v>
-      </c>
       <c r="C1444" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1444" s="1">
         <v>23611</v>
@@ -54003,10 +54011,10 @@
         <v>37.373866200000002</v>
       </c>
       <c r="H1444" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1444" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1444" t="s">
-        <v>2443</v>
       </c>
       <c r="J1444">
         <v>236</v>
@@ -54014,13 +54022,13 @@
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1445" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1445" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C1445" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1445" s="1">
         <v>23612</v>
@@ -54035,10 +54043,10 @@
         <v>38.366223099999999</v>
       </c>
       <c r="H1445" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1445" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1445" t="s">
-        <v>2443</v>
       </c>
       <c r="J1445">
         <v>236</v>
@@ -54046,13 +54054,13 @@
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1446" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C1446" t="s">
         <v>2418</v>
-      </c>
-      <c r="B1446" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C1446" t="s">
-        <v>2419</v>
       </c>
       <c r="D1446" s="1">
         <v>23602</v>
@@ -54067,10 +54075,10 @@
         <v>39.194141999999999</v>
       </c>
       <c r="H1446" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1446" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1446" t="s">
-        <v>2443</v>
       </c>
       <c r="J1446">
         <v>236</v>
@@ -54078,13 +54086,13 @@
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1447" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1447" t="s">
         <v>2420</v>
       </c>
-      <c r="B1447" t="s">
-        <v>2421</v>
-      </c>
       <c r="C1447" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1447" s="1">
         <v>23603</v>
@@ -54099,10 +54107,10 @@
         <v>37.026474</v>
       </c>
       <c r="H1447" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1447" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1447" t="s">
-        <v>2443</v>
       </c>
       <c r="J1447">
         <v>236</v>
@@ -54110,13 +54118,13 @@
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1448" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1448" t="s">
         <v>2422</v>
       </c>
-      <c r="B1448" t="s">
-        <v>2423</v>
-      </c>
       <c r="C1448" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1448" s="1">
         <v>23604</v>
@@ -54131,10 +54139,10 @@
         <v>37.678466999999998</v>
       </c>
       <c r="H1448" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1448" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1448" t="s">
-        <v>2443</v>
       </c>
       <c r="J1448">
         <v>236</v>
@@ -54142,13 +54150,13 @@
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1449" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1449" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C1449" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1449" s="1">
         <v>23605</v>
@@ -54163,10 +54171,10 @@
         <v>37.191927999999997</v>
       </c>
       <c r="H1449" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1449" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1449" t="s">
-        <v>2443</v>
       </c>
       <c r="J1449">
         <v>236</v>
@@ -54174,13 +54182,13 @@
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1450" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1450" t="s">
         <v>2425</v>
       </c>
-      <c r="B1450" t="s">
-        <v>2426</v>
-      </c>
       <c r="C1450" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1450" s="1">
         <v>23608</v>
@@ -54195,10 +54203,10 @@
         <v>38.063313000000001</v>
       </c>
       <c r="H1450" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1450" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1450" t="s">
-        <v>2443</v>
       </c>
       <c r="J1450">
         <v>236</v>
@@ -54206,13 +54214,13 @@
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1451" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B1451" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C1451" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1451" s="1">
         <v>23609</v>
@@ -54227,10 +54235,10 @@
         <v>37.102702999999998</v>
       </c>
       <c r="H1451" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1451" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1451" t="s">
-        <v>2443</v>
       </c>
       <c r="J1451">
         <v>236</v>
@@ -54238,13 +54246,13 @@
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1452" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B1452" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C1452" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1452" s="1">
         <v>23610</v>
@@ -54259,10 +54267,10 @@
         <v>38.178187999999999</v>
       </c>
       <c r="H1452" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1452" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1452" t="s">
-        <v>2443</v>
       </c>
       <c r="J1452">
         <v>236</v>
@@ -54270,13 +54278,13 @@
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1453" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1453" t="s">
         <v>2429</v>
       </c>
-      <c r="B1453" t="s">
-        <v>2430</v>
-      </c>
       <c r="C1453" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1453" s="1">
         <v>23613</v>
@@ -54291,10 +54299,10 @@
         <v>37.204185000000003</v>
       </c>
       <c r="H1453" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1453" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1453" t="s">
-        <v>2443</v>
       </c>
       <c r="J1453">
         <v>236</v>
@@ -54302,13 +54310,13 @@
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1454" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1454" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C1454" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1454" s="1">
         <v>23614</v>
@@ -54323,10 +54331,10 @@
         <v>38.490814</v>
       </c>
       <c r="H1454" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1454" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1454" t="s">
-        <v>2443</v>
       </c>
       <c r="J1454">
         <v>236</v>
@@ -54334,13 +54342,13 @@
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1455" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1455" t="s">
         <v>2432</v>
       </c>
-      <c r="B1455" t="s">
-        <v>2433</v>
-      </c>
       <c r="C1455" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1455" s="1">
         <v>23615</v>
@@ -54355,10 +54363,10 @@
         <v>37.473747000000003</v>
       </c>
       <c r="H1455" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1455" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1455" t="s">
-        <v>2443</v>
       </c>
       <c r="J1455">
         <v>236</v>
@@ -54366,13 +54374,13 @@
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1456" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B1456" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C1456" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1456" s="1">
         <v>23616</v>
@@ -54387,10 +54395,10 @@
         <v>38.728821000000003</v>
       </c>
       <c r="H1456" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1456" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1456" t="s">
-        <v>2443</v>
       </c>
       <c r="J1456">
         <v>236</v>
@@ -54398,13 +54406,13 @@
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1457" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B1457" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C1457" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1457" s="1">
         <v>23617</v>
@@ -54419,10 +54427,10 @@
         <v>37.3389162</v>
       </c>
       <c r="H1457" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1457" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1457" t="s">
-        <v>2443</v>
       </c>
       <c r="J1457">
         <v>236</v>
@@ -54430,13 +54438,13 @@
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1458" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B1458" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C1458" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1458" s="1">
         <v>23618</v>
@@ -54451,10 +54459,10 @@
         <v>37.802036000000001</v>
       </c>
       <c r="H1458" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1458" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1458" t="s">
-        <v>2443</v>
       </c>
       <c r="J1458">
         <v>236</v>
@@ -54462,13 +54470,13 @@
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1459" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B1459" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="C1459" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1459" s="1">
         <v>23619</v>
@@ -54483,10 +54491,10 @@
         <v>38.725698000000001</v>
       </c>
       <c r="H1459" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1459" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1459" t="s">
-        <v>2443</v>
       </c>
       <c r="J1459">
         <v>236</v>
@@ -54494,13 +54502,13 @@
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1460" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1460" t="s">
         <v>2438</v>
       </c>
-      <c r="B1460" t="s">
-        <v>2439</v>
-      </c>
       <c r="C1460" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1460" s="1">
         <v>23620</v>
@@ -54515,10 +54523,10 @@
         <v>37.433619999999998</v>
       </c>
       <c r="H1460" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1460" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1460" t="s">
-        <v>2443</v>
       </c>
       <c r="J1460">
         <v>236</v>
@@ -54526,13 +54534,13 @@
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1461" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1461" t="s">
         <v>2440</v>
       </c>
-      <c r="B1461" t="s">
-        <v>2441</v>
-      </c>
       <c r="C1461" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1461" s="1">
         <v>23621</v>
@@ -54547,10 +54555,10 @@
         <v>39.034309</v>
       </c>
       <c r="H1461" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I1461" t="s">
         <v>2442</v>
-      </c>
-      <c r="I1461" t="s">
-        <v>2443</v>
       </c>
       <c r="J1461">
         <v>236</v>
@@ -54558,13 +54566,13 @@
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1462" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B1462" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C1462" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1462" s="1">
         <v>70602</v>
@@ -54579,10 +54587,10 @@
         <v>37.978540199999998</v>
       </c>
       <c r="H1462" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1462" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1462">
         <v>706</v>
@@ -54590,13 +54598,13 @@
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1463" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1463" t="s">
         <v>2445</v>
       </c>
-      <c r="B1463" t="s">
-        <v>2446</v>
-      </c>
       <c r="C1463" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1463" s="1">
         <v>70603</v>
@@ -54611,10 +54619,10 @@
         <v>37.534394200000001</v>
       </c>
       <c r="H1463" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1463" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1463">
         <v>706</v>
@@ -54622,13 +54630,13 @@
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1464" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B1464" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="C1464" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1464" s="1">
         <v>70605</v>
@@ -54643,10 +54651,10 @@
         <v>37.122489199999997</v>
       </c>
       <c r="H1464" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1464" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1464">
         <v>706</v>
@@ -54654,13 +54662,13 @@
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1465" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B1465" t="s">
         <v>1620</v>
       </c>
       <c r="C1465" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1465" s="1">
         <v>70606</v>
@@ -54675,10 +54683,10 @@
         <v>35.614427200000002</v>
       </c>
       <c r="H1465" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1465" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1465">
         <v>706</v>
@@ -54686,13 +54694,13 @@
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1466" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1466" t="s">
         <v>2449</v>
       </c>
-      <c r="B1466" t="s">
-        <v>2450</v>
-      </c>
       <c r="C1466" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1466" s="1">
         <v>70609</v>
@@ -54707,10 +54715,10 @@
         <v>38.835675199999997</v>
       </c>
       <c r="H1466" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1466" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1466">
         <v>706</v>
@@ -54718,13 +54726,13 @@
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1467" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B1467" t="s">
         <v>1178</v>
       </c>
       <c r="C1467" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1467" s="1">
         <v>70610</v>
@@ -54739,10 +54747,10 @@
         <v>36.473715200000001</v>
       </c>
       <c r="H1467" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1467" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1467">
         <v>706</v>
@@ -54750,13 +54758,13 @@
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1468" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1468" t="s">
         <v>2452</v>
       </c>
-      <c r="B1468" t="s">
-        <v>2453</v>
-      </c>
       <c r="C1468" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1468" s="1">
         <v>70612</v>
@@ -54771,10 +54779,10 @@
         <v>35.397450200000002</v>
       </c>
       <c r="H1468" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1468" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1468">
         <v>706</v>
@@ -54782,13 +54790,13 @@
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1469" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1469" t="s">
         <v>2454</v>
       </c>
-      <c r="B1469" t="s">
-        <v>2455</v>
-      </c>
       <c r="C1469" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1469" s="1">
         <v>70613</v>
@@ -54803,10 +54811,10 @@
         <v>37.981773199999999</v>
       </c>
       <c r="H1469" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1469" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1469">
         <v>706</v>
@@ -54814,13 +54822,13 @@
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1470" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1470" t="s">
         <v>2456</v>
       </c>
-      <c r="B1470" t="s">
-        <v>2457</v>
-      </c>
       <c r="C1470" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1470" s="1">
         <v>70616</v>
@@ -54835,10 +54843,10 @@
         <v>39.717818100000002</v>
       </c>
       <c r="H1470" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1470" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1470">
         <v>706</v>
@@ -54846,13 +54854,13 @@
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1471" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1471" t="s">
         <v>2458</v>
       </c>
-      <c r="B1471" t="s">
-        <v>2459</v>
-      </c>
       <c r="C1471" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1471" s="1">
         <v>70617</v>
@@ -54867,10 +54875,10 @@
         <v>39.215236099999998</v>
       </c>
       <c r="H1471" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1471" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1471">
         <v>706</v>
@@ -54878,13 +54886,13 @@
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1472" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1472" t="s">
         <v>2460</v>
       </c>
-      <c r="B1472" t="s">
-        <v>2461</v>
-      </c>
       <c r="C1472" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1472" s="1">
         <v>70618</v>
@@ -54899,10 +54907,10 @@
         <v>36.281457199999998</v>
       </c>
       <c r="H1472" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1472" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1472">
         <v>706</v>
@@ -54910,13 +54918,13 @@
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1473" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B1473" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="C1473" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1473" s="1">
         <v>70619</v>
@@ -54931,10 +54939,10 @@
         <v>38.359081199999999</v>
       </c>
       <c r="H1473" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1473" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1473">
         <v>706</v>
@@ -54942,13 +54950,13 @@
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1474" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B1474" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C1474" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1474" s="1">
         <v>70620</v>
@@ -54963,10 +54971,10 @@
         <v>36.323339199999999</v>
       </c>
       <c r="H1474" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1474" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1474">
         <v>706</v>
@@ -54974,13 +54982,13 @@
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1475" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1475" t="s">
         <v>2464</v>
       </c>
-      <c r="B1475" t="s">
-        <v>2465</v>
-      </c>
       <c r="C1475" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1475" s="1">
         <v>70621</v>
@@ -54995,10 +55003,10 @@
         <v>36.655439200000004</v>
       </c>
       <c r="H1475" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1475" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1475">
         <v>706</v>
@@ -55006,13 +55014,13 @@
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1476" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1476" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C1476" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1476" s="1">
         <v>70601</v>
@@ -55027,10 +55035,10 @@
         <v>37.349690000000002</v>
       </c>
       <c r="H1476" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1476" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1476">
         <v>706</v>
@@ -55038,13 +55046,13 @@
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1477" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1477" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="C1477" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1477" s="1">
         <v>70614</v>
@@ -55059,10 +55067,10 @@
         <v>36.16722</v>
       </c>
       <c r="H1477" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I1477" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J1477">
         <v>706</v>
